--- a/tutorial/tutorial_data/pyscnet_scanpy_pbmc/CD8 T_centrality.xlsx
+++ b/tutorial/tutorial_data/pyscnet_scanpy_pbmc/CD8 T_centrality.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J178"/>
+  <dimension ref="A1:J192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6019 +489,6495 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CLDN5</t>
+          <t>CD79A</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.08072943722943758</v>
+        <v>0.002183406995458809</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1329305135951662</v>
+        <v>0.6375838926174496</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02840909090909091</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01033307739611588</v>
+        <v>0.006056643578872459</v>
       </c>
       <c r="F2" t="n">
-        <v>196</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>117.5</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="J2" t="n">
-        <v>135.125</v>
+        <v>85.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PTCRA</t>
+          <t>LINC00926</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03916341991342009</v>
+        <v>0.001702582511600191</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1188386225523295</v>
+        <v>0.6148867313915858</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05681818181818182</v>
+        <v>0.3736842105263158</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02249659806455296</v>
+        <v>0.006426879965025322</v>
       </c>
       <c r="F3" t="n">
-        <v>175</v>
+        <v>43</v>
       </c>
       <c r="G3" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="H3" t="n">
-        <v>159.5</v>
+        <v>21</v>
       </c>
       <c r="I3" t="n">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="J3" t="n">
-        <v>145.375</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ARHGAP24</t>
+          <t>HLA-DOB</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01142063466224617</v>
+        <v>0.0008539154465448898</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.5828220858895705</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05113636363636364</v>
+        <v>0.2842105263157895</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01236968471611994</v>
+        <v>0.004555785571437445</v>
       </c>
       <c r="F4" t="n">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>132</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>151.5</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>194</v>
+        <v>33</v>
       </c>
       <c r="J4" t="n">
-        <v>151.125</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FCRLA</t>
+          <t>PKIG</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01310160215904263</v>
+        <v>0.0007345843528353984</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2225031605562579</v>
+        <v>0.5705705705705706</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0625</v>
+        <v>0.2473684210526316</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01524422989074638</v>
+        <v>0.006149962018667176</v>
       </c>
       <c r="F5" t="n">
-        <v>135</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>167</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="J5" t="n">
-        <v>158.25</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AP001189.4</t>
+          <t>GZMH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.006784923687294283</v>
+        <v>0.0013812501060255</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2143727161997564</v>
+        <v>0.6312292358803987</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05681818181818182</v>
+        <v>0.4157894736842105</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01168108963905151</v>
+        <v>0.005473378136072564</v>
       </c>
       <c r="F6" t="n">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="G6" t="n">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="H6" t="n">
-        <v>159.5</v>
+        <v>37</v>
       </c>
       <c r="I6" t="n">
-        <v>190</v>
+        <v>114</v>
       </c>
       <c r="J6" t="n">
-        <v>142.375</v>
+        <v>52.75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PKIG</t>
+          <t>NKG7</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03980566052144972</v>
+        <v>0.001310388868816575</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2250639386189258</v>
+        <v>0.6109324758842444</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08522727272727273</v>
+        <v>0.3631578947368421</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02088072715313937</v>
+        <v>0.005217967846058288</v>
       </c>
       <c r="F7" t="n">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="G7" t="n">
-        <v>138.5</v>
+        <v>15.5</v>
       </c>
       <c r="H7" t="n">
-        <v>186.5</v>
+        <v>15.5</v>
       </c>
       <c r="I7" t="n">
-        <v>205</v>
+        <v>89</v>
       </c>
       <c r="J7" t="n">
-        <v>176.75</v>
+        <v>34.75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MMD</t>
+          <t>GNG7</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.001808361346424288</v>
       </c>
       <c r="C8" t="n">
-        <v>0.106280193236715</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="D8" t="n">
-        <v>0.005681818181818182</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="E8" t="n">
-        <v>0.004691154347302702</v>
+        <v>0.004738277355382903</v>
       </c>
       <c r="F8" t="n">
-        <v>48.5</v>
+        <v>53</v>
       </c>
       <c r="G8" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H8" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I8" t="n">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="J8" t="n">
-        <v>62.875</v>
+        <v>34.75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CA2</t>
+          <t>KIAA0125</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03246650799268957</v>
+        <v>0.001492181413526745</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2172839506172839</v>
+        <v>0.5993690851735016</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03977272727272727</v>
+        <v>0.331578947368421</v>
       </c>
       <c r="E9" t="n">
-        <v>0.008065510195654525</v>
+        <v>0.005998343658273364</v>
       </c>
       <c r="F9" t="n">
-        <v>168</v>
+        <v>27</v>
       </c>
       <c r="G9" t="n">
-        <v>119</v>
+        <v>10.5</v>
       </c>
       <c r="H9" t="n">
-        <v>139</v>
+        <v>10.5</v>
       </c>
       <c r="I9" t="n">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="J9" t="n">
-        <v>148.5</v>
+        <v>52.25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ENHO</t>
+          <t>FCRLA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03460259316488664</v>
+        <v>0.001713731527384506</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2107784431137724</v>
+        <v>0.6148867313915858</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05113636363636364</v>
+        <v>0.3736842105263158</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01135882812408139</v>
+        <v>0.005765928095198595</v>
       </c>
       <c r="F10" t="n">
-        <v>172</v>
+        <v>44</v>
       </c>
       <c r="G10" t="n">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="H10" t="n">
-        <v>151.5</v>
+        <v>21</v>
       </c>
       <c r="I10" t="n">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="J10" t="n">
-        <v>153.875</v>
+        <v>58.25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CD79A</t>
+          <t>HLA-DRB1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.001996844772416724</v>
+        <v>0.003163693056962494</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2016036655211913</v>
+        <v>0.6985294117647058</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05681818181818182</v>
+        <v>0.5684210526315789</v>
       </c>
       <c r="E11" t="n">
-        <v>0.008128467705750023</v>
+        <v>0.00670219639366659</v>
       </c>
       <c r="F11" t="n">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="G11" t="n">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="H11" t="n">
-        <v>159.5</v>
+        <v>147</v>
       </c>
       <c r="I11" t="n">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="J11" t="n">
-        <v>127.375</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LINC00926</t>
+          <t>HLA-DRB5</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.003541891281636653</v>
+        <v>0.002524906817361478</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2041763341067285</v>
+        <v>0.6810035842293907</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0625</v>
+        <v>0.531578947368421</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01173032447660057</v>
+        <v>0.006149882857905082</v>
       </c>
       <c r="F12" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G12" t="n">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="H12" t="n">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="I12" t="n">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="J12" t="n">
-        <v>138.25</v>
+        <v>128.75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AC147651.3</t>
+          <t>CD72</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.002186147186147189</v>
+        <v>0.002541741953698676</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1182001343183345</v>
+        <v>0.6462585034013606</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02840909090909091</v>
+        <v>0.4526315789473684</v>
       </c>
       <c r="E13" t="n">
-        <v>0.007929710813460158</v>
+        <v>0.005658950548564946</v>
       </c>
       <c r="F13" t="n">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="G13" t="n">
-        <v>38</v>
+        <v>70.5</v>
       </c>
       <c r="H13" t="n">
-        <v>117.5</v>
+        <v>70.5</v>
       </c>
       <c r="I13" t="n">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="J13" t="n">
-        <v>102.875</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ACRBP</t>
+          <t>BANK1</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.002628178427078451</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1181208053691275</v>
+        <v>0.657439446366782</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02272727272727273</v>
+        <v>0.4789473684210526</v>
       </c>
       <c r="E14" t="n">
-        <v>0.006805138208253651</v>
+        <v>0.005589241687856123</v>
       </c>
       <c r="F14" t="n">
-        <v>48.5</v>
+        <v>106</v>
       </c>
       <c r="G14" t="n">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="H14" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="I14" t="n">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="J14" t="n">
-        <v>85.875</v>
+        <v>102.75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EAF2</t>
+          <t>FCER2</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.06773255942440451</v>
+        <v>0.002112213075610296</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2678843226788432</v>
+        <v>0.6397306397306397</v>
       </c>
       <c r="D15" t="n">
-        <v>0.07954545454545454</v>
+        <v>0.4368421052631579</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01053216991079726</v>
+        <v>0.005894058178960093</v>
       </c>
       <c r="F15" t="n">
-        <v>191</v>
+        <v>68</v>
       </c>
       <c r="G15" t="n">
-        <v>202.5</v>
+        <v>54</v>
       </c>
       <c r="H15" t="n">
-        <v>181.5</v>
+        <v>54</v>
       </c>
       <c r="I15" t="n">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="J15" t="n">
-        <v>189.75</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NRGN</t>
+          <t>CST7</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1102688865089065</v>
+        <v>0.002949199189622801</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2695252679938744</v>
+        <v>0.6884057971014492</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1136363636363636</v>
+        <v>0.5473684210526316</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01881078105824293</v>
+        <v>0.006190693225396626</v>
       </c>
       <c r="F16" t="n">
-        <v>199</v>
+        <v>123</v>
       </c>
       <c r="G16" t="n">
-        <v>206</v>
+        <v>137</v>
       </c>
       <c r="H16" t="n">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="I16" t="n">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="J16" t="n">
-        <v>201.25</v>
+        <v>142.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HLA-DOB</t>
+          <t>P2RX5</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.001387413429171854</v>
+        <v>0.001841335991044457</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2128174123337364</v>
+        <v>0.6229508196721312</v>
       </c>
       <c r="D17" t="n">
-        <v>0.03977272727272727</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="E17" t="n">
-        <v>0.009576511883473415</v>
+        <v>0.004299497034287808</v>
       </c>
       <c r="F17" t="n">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="G17" t="n">
-        <v>111.5</v>
+        <v>27.5</v>
       </c>
       <c r="H17" t="n">
-        <v>139</v>
+        <v>27.5</v>
       </c>
       <c r="I17" t="n">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="J17" t="n">
-        <v>128.125</v>
+        <v>33.25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ITGA2B</t>
+          <t>FGFBP2</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0959119329828754</v>
+        <v>0.002145876098896006</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2365591397849462</v>
+        <v>0.657439446366782</v>
       </c>
       <c r="D18" t="n">
-        <v>0.05113636363636364</v>
+        <v>0.4789473684210526</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01180917386588743</v>
+        <v>0.005548023179113527</v>
       </c>
       <c r="F18" t="n">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="G18" t="n">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="H18" t="n">
-        <v>151.5</v>
+        <v>92</v>
       </c>
       <c r="I18" t="n">
-        <v>192</v>
+        <v>117</v>
       </c>
       <c r="J18" t="n">
-        <v>173.625</v>
+        <v>93.25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CD19</t>
+          <t>CD79B</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.07288942882045395</v>
+        <v>0.002864228982922826</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2461538461538462</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="D19" t="n">
-        <v>0.05681818181818182</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="E19" t="n">
-        <v>0.007901361958847181</v>
+        <v>0.005113896972010596</v>
       </c>
       <c r="F19" t="n">
-        <v>193</v>
+        <v>119</v>
       </c>
       <c r="G19" t="n">
-        <v>172.5</v>
+        <v>87</v>
       </c>
       <c r="H19" t="n">
-        <v>159.5</v>
+        <v>87</v>
       </c>
       <c r="I19" t="n">
-        <v>166</v>
+        <v>75</v>
       </c>
       <c r="J19" t="n">
-        <v>172.75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>KIAA0125</t>
+          <t>BLK</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0657694655823539</v>
+        <v>0.00381649813780357</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2536023054755043</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="D20" t="n">
-        <v>0.06818181818181818</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="E20" t="n">
-        <v>0.016205618195065</v>
+        <v>0.005633448369650977</v>
       </c>
       <c r="F20" t="n">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="G20" t="n">
-        <v>188</v>
+        <v>122</v>
       </c>
       <c r="H20" t="n">
-        <v>171.5</v>
+        <v>122</v>
       </c>
       <c r="I20" t="n">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="J20" t="n">
-        <v>187.375</v>
+        <v>131.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ASGR1</t>
+          <t>CCL5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.03384078224837232</v>
+        <v>0.002813333456825475</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2662632375189107</v>
+        <v>0.6761565836298933</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1477272727272727</v>
+        <v>0.5210526315789473</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01347686005710749</v>
+        <v>0.005736438903050608</v>
       </c>
       <c r="F21" t="n">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="G21" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="H21" t="n">
-        <v>206.5</v>
+        <v>120</v>
       </c>
       <c r="I21" t="n">
-        <v>197</v>
+        <v>145</v>
       </c>
       <c r="J21" t="n">
-        <v>193.375</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PTGS1</t>
+          <t>LY86</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0193042434688503</v>
+        <v>0.0008526276547649284</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2615156017830609</v>
+        <v>0.6012658227848101</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1363636363636364</v>
+        <v>0.3368421052631579</v>
       </c>
       <c r="E22" t="n">
-        <v>0.02629758306820314</v>
+        <v>0.00529454123853603</v>
       </c>
       <c r="F22" t="n">
-        <v>152</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="H22" t="n">
-        <v>200.5</v>
+        <v>12</v>
       </c>
       <c r="I22" t="n">
-        <v>207</v>
+        <v>98</v>
       </c>
       <c r="J22" t="n">
-        <v>188.625</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GZMH</t>
+          <t>HLA-DQA1</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.04993031691056719</v>
+        <v>0.00284137681476211</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2503556187766714</v>
+        <v>0.6834532374100719</v>
       </c>
       <c r="D23" t="n">
-        <v>0.06818181818181818</v>
+        <v>0.5368421052631579</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01738597733820367</v>
+        <v>0.006216682239091418</v>
       </c>
       <c r="F23" t="n">
-        <v>185</v>
+        <v>117</v>
       </c>
       <c r="G23" t="n">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="H23" t="n">
-        <v>171.5</v>
+        <v>129</v>
       </c>
       <c r="I23" t="n">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="J23" t="n">
-        <v>184.875</v>
+        <v>137.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>NKG7</t>
+          <t>HLA-DQA2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01559390804526378</v>
+        <v>0.001990865296856151</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2340425531914894</v>
+        <v>0.6529209621993127</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0625</v>
+        <v>0.468421052631579</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01787844831415817</v>
+        <v>0.005076634010685073</v>
       </c>
       <c r="F24" t="n">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="G24" t="n">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c r="H24" t="n">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="I24" t="n">
-        <v>202</v>
+        <v>71</v>
       </c>
       <c r="J24" t="n">
-        <v>164.5</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CLEC10A</t>
+          <t>PDLIM1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.007224340255438591</v>
+        <v>0.001200596707473255</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1835245046923879</v>
+        <v>0.5956112852664577</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02840909090909091</v>
+        <v>0.3210526315789474</v>
       </c>
       <c r="E25" t="n">
-        <v>0.006648084866731536</v>
+        <v>0.003720938600933271</v>
       </c>
       <c r="F25" t="n">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="G25" t="n">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="H25" t="n">
-        <v>117.5</v>
+        <v>9</v>
       </c>
       <c r="I25" t="n">
-        <v>154</v>
+        <v>8</v>
       </c>
       <c r="J25" t="n">
-        <v>113.125</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SERPINF1</t>
+          <t>CD2</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.03459665696409739</v>
+        <v>0.004810357864453186</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1763527054108217</v>
+        <v>0.7279693486590039</v>
       </c>
       <c r="D26" t="n">
-        <v>0.04545454545454546</v>
+        <v>0.6263157894736842</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0190068038312989</v>
+        <v>0.006250940921335855</v>
       </c>
       <c r="F26" t="n">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="G26" t="n">
-        <v>66</v>
+        <v>179.5</v>
       </c>
       <c r="H26" t="n">
-        <v>146.5</v>
+        <v>179.5</v>
       </c>
       <c r="I26" t="n">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="J26" t="n">
-        <v>146.875</v>
+        <v>179.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>LY6G6F</t>
+          <t>CD14</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.001768857213169479</v>
+        <v>0.001267514530194836</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2039397450753186</v>
+        <v>0.6354515050167224</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02272727272727273</v>
+        <v>0.4263157894736842</v>
       </c>
       <c r="E27" t="n">
-        <v>0.01232632591995383</v>
+        <v>0.005332262854819477</v>
       </c>
       <c r="F27" t="n">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="G27" t="n">
-        <v>98.5</v>
+        <v>45.5</v>
       </c>
       <c r="H27" t="n">
-        <v>100</v>
+        <v>45.5</v>
       </c>
       <c r="I27" t="n">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="J27" t="n">
-        <v>119.125</v>
+        <v>52.25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SEPT5</t>
+          <t>CDA</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.04177192200518526</v>
+        <v>0.001047709554190386</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2025316455696203</v>
+        <v>0.6270627062706271</v>
       </c>
       <c r="D28" t="n">
-        <v>0.03977272727272727</v>
+        <v>0.4052631578947368</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01270668332893875</v>
+        <v>0.005368467994533102</v>
       </c>
       <c r="F28" t="n">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="G28" t="n">
-        <v>95.5</v>
+        <v>32</v>
       </c>
       <c r="H28" t="n">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="I28" t="n">
-        <v>195</v>
+        <v>104</v>
       </c>
       <c r="J28" t="n">
-        <v>151.875</v>
+        <v>44.75</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>GZMB</t>
+          <t>MS4A1</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.04584901512318677</v>
+        <v>0.002493369807033979</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2346666666666667</v>
+        <v>0.6397306397306397</v>
       </c>
       <c r="D29" t="n">
-        <v>0.06818181818181818</v>
+        <v>0.4368421052631579</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01591582086654243</v>
+        <v>0.00471832056098772</v>
       </c>
       <c r="F29" t="n">
-        <v>182</v>
+        <v>95</v>
       </c>
       <c r="G29" t="n">
-        <v>149</v>
+        <v>54</v>
       </c>
       <c r="H29" t="n">
-        <v>171.5</v>
+        <v>54</v>
       </c>
       <c r="I29" t="n">
-        <v>199</v>
+        <v>47</v>
       </c>
       <c r="J29" t="n">
-        <v>175.375</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CD72</t>
+          <t>IL7R</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.02864539626394643</v>
+        <v>0.001650849503956774</v>
       </c>
       <c r="C30" t="n">
-        <v>0.233112582781457</v>
+        <v>0.6397306397306397</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0625</v>
+        <v>0.4368421052631579</v>
       </c>
       <c r="E30" t="n">
-        <v>0.007359262560403621</v>
+        <v>0.004807542023341983</v>
       </c>
       <c r="F30" t="n">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="G30" t="n">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="H30" t="n">
-        <v>167</v>
+        <v>54</v>
       </c>
       <c r="I30" t="n">
-        <v>163</v>
+        <v>56</v>
       </c>
       <c r="J30" t="n">
-        <v>159.25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CD9</t>
+          <t>LTB</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01272060947525402</v>
+        <v>0.00161676792443149</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1917211328976035</v>
+        <v>0.6168831168831169</v>
       </c>
       <c r="D31" t="n">
-        <v>0.02840909090909091</v>
+        <v>0.3789473684210526</v>
       </c>
       <c r="E31" t="n">
-        <v>0.008784657720139994</v>
+        <v>0.004534968705269746</v>
       </c>
       <c r="F31" t="n">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="G31" t="n">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="H31" t="n">
-        <v>117.5</v>
+        <v>23</v>
       </c>
       <c r="I31" t="n">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="J31" t="n">
-        <v>126.125</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BLNK</t>
+          <t>HVCN1</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.001906994198264596</v>
+        <v>0.002056412854773051</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2250639386189258</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01704545454545454</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="E32" t="n">
-        <v>0.004231919922172993</v>
+        <v>0.004710556600130564</v>
       </c>
       <c r="F32" t="n">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="G32" t="n">
-        <v>138.5</v>
+        <v>40.5</v>
       </c>
       <c r="H32" t="n">
-        <v>83</v>
+        <v>40.5</v>
       </c>
       <c r="I32" t="n">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="J32" t="n">
-        <v>106.375</v>
+        <v>47.75</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>FCER1A</t>
+          <t>CD8A</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.002956058512494658</v>
+        <v>0.00470333423439278</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1814432989690722</v>
+        <v>0.7480314960629921</v>
       </c>
       <c r="D33" t="n">
-        <v>0.02272727272727273</v>
+        <v>0.6631578947368421</v>
       </c>
       <c r="E33" t="n">
-        <v>0.005212232858752473</v>
+        <v>0.006408631629726071</v>
       </c>
       <c r="F33" t="n">
-        <v>92</v>
+        <v>181</v>
       </c>
       <c r="G33" t="n">
-        <v>71</v>
+        <v>185.5</v>
       </c>
       <c r="H33" t="n">
-        <v>100</v>
+        <v>185.5</v>
       </c>
       <c r="I33" t="n">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="J33" t="n">
-        <v>100</v>
+        <v>183.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>FGFBP2</t>
+          <t>CD8B</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.02016979608496206</v>
+        <v>0.005061014367168589</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2437673130193906</v>
+        <v>0.7392996108949417</v>
       </c>
       <c r="D34" t="n">
-        <v>0.05113636363636364</v>
+        <v>0.6473684210526316</v>
       </c>
       <c r="E34" t="n">
-        <v>0.01137771738324401</v>
+        <v>0.006400400706237207</v>
       </c>
       <c r="F34" t="n">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="G34" t="n">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="H34" t="n">
-        <v>151.5</v>
+        <v>183</v>
       </c>
       <c r="I34" t="n">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="J34" t="n">
-        <v>165.125</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CDA</t>
+          <t>CYB561A3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01570842222197935</v>
+        <v>0.002211184836461186</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2630792227204783</v>
+        <v>0.6354515050167224</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1363636363636364</v>
+        <v>0.4263157894736842</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01084934533133267</v>
+        <v>0.004635901332488265</v>
       </c>
       <c r="F35" t="n">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="G35" t="n">
-        <v>198</v>
+        <v>45.5</v>
       </c>
       <c r="H35" t="n">
-        <v>200.5</v>
+        <v>45.5</v>
       </c>
       <c r="I35" t="n">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="J35" t="n">
-        <v>181.875</v>
+        <v>51.75</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>GP9</t>
+          <t>MS4A6A</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.04198144585665999</v>
+        <v>0.001500932669178152</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2205513784461153</v>
+        <v>0.6375838926174496</v>
       </c>
       <c r="D36" t="n">
-        <v>0.03977272727272727</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="E36" t="n">
-        <v>0.009251702907049183</v>
+        <v>0.005428872624414763</v>
       </c>
       <c r="F36" t="n">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="G36" t="n">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="H36" t="n">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="I36" t="n">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="J36" t="n">
-        <v>156</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MS4A6A</t>
+          <t>PRF1</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.05443325136875588</v>
+        <v>0.004691879954159853</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2741433021806853</v>
+        <v>0.7251908396946565</v>
       </c>
       <c r="D37" t="n">
-        <v>0.08522727272727273</v>
+        <v>0.6210526315789473</v>
       </c>
       <c r="E37" t="n">
-        <v>0.008352925360806212</v>
+        <v>0.006676484244232912</v>
       </c>
       <c r="F37" t="n">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G37" t="n">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="H37" t="n">
-        <v>186.5</v>
+        <v>177</v>
       </c>
       <c r="I37" t="n">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="J37" t="n">
-        <v>187.625</v>
+        <v>180.75</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>GNG11</t>
+          <t>COTL1</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1400348857463421</v>
+        <v>0.005663647555806497</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2482369534555712</v>
+        <v>0.7661290322580645</v>
       </c>
       <c r="D38" t="n">
-        <v>0.02840909090909091</v>
+        <v>0.6947368421052631</v>
       </c>
       <c r="E38" t="n">
-        <v>0.005457020909264487</v>
+        <v>0.006901570748816774</v>
       </c>
       <c r="F38" t="n">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="G38" t="n">
-        <v>178.5</v>
+        <v>191</v>
       </c>
       <c r="H38" t="n">
-        <v>117.5</v>
+        <v>191</v>
       </c>
       <c r="I38" t="n">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="J38" t="n">
-        <v>159.25</v>
+        <v>190.75</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>HIST1H2AC</t>
+          <t>NCF2</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.02936106707576827</v>
+        <v>0.001506860385663315</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2349799732977303</v>
+        <v>0.6418918918918919</v>
       </c>
       <c r="D39" t="n">
-        <v>0.03977272727272727</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="E39" t="n">
-        <v>0.005854182708484915</v>
+        <v>0.005443902410982457</v>
       </c>
       <c r="F39" t="n">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="G39" t="n">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="H39" t="n">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="I39" t="n">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="J39" t="n">
-        <v>150.25</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CLEC1B</t>
+          <t>SPI1</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>0.0009233346603262032</v>
       </c>
       <c r="C40" t="n">
-        <v>0.106280193236715</v>
+        <v>0.6148867313915858</v>
       </c>
       <c r="D40" t="n">
-        <v>0.005681818181818182</v>
+        <v>0.3736842105263158</v>
       </c>
       <c r="E40" t="n">
-        <v>0.002963676319265006</v>
+        <v>0.00548455165737634</v>
       </c>
       <c r="F40" t="n">
-        <v>48.5</v>
+        <v>6</v>
       </c>
       <c r="G40" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H40" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I40" t="n">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="J40" t="n">
-        <v>53.875</v>
+        <v>40.75</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CST7</t>
+          <t>HLA-DMB</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.04670714610721244</v>
+        <v>0.003132046698206963</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2391304347826087</v>
+        <v>0.6761565836298933</v>
       </c>
       <c r="D41" t="n">
-        <v>0.07954545454545454</v>
+        <v>0.5210526315789473</v>
       </c>
       <c r="E41" t="n">
-        <v>0.01143149279085588</v>
+        <v>0.00560719781940238</v>
       </c>
       <c r="F41" t="n">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="G41" t="n">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="H41" t="n">
-        <v>181.5</v>
+        <v>120</v>
       </c>
       <c r="I41" t="n">
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="J41" t="n">
-        <v>178.125</v>
+        <v>123.75</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>GAS2L1</t>
+          <t>RPL13</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>0.002400334610686654</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1066666666666667</v>
+        <v>0.6484641638225256</v>
       </c>
       <c r="D42" t="n">
-        <v>0.01136363636363636</v>
+        <v>0.4578947368421052</v>
       </c>
       <c r="E42" t="n">
-        <v>0.003360491101524838</v>
+        <v>0.005297098990488012</v>
       </c>
       <c r="F42" t="n">
-        <v>48.5</v>
+        <v>90</v>
       </c>
       <c r="G42" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="H42" t="n">
-        <v>64.5</v>
+        <v>75</v>
       </c>
       <c r="I42" t="n">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J42" t="n">
-        <v>62.75</v>
+        <v>84.75</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ALDH2</t>
+          <t>RPS25</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01660055202153791</v>
+        <v>0.002192982088941729</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2427586206896552</v>
+        <v>0.657439446366782</v>
       </c>
       <c r="D43" t="n">
-        <v>0.08522727272727273</v>
+        <v>0.4789473684210526</v>
       </c>
       <c r="E43" t="n">
-        <v>0.009863821505659225</v>
+        <v>0.005561392583603084</v>
       </c>
       <c r="F43" t="n">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="G43" t="n">
-        <v>163.5</v>
+        <v>92</v>
       </c>
       <c r="H43" t="n">
-        <v>186.5</v>
+        <v>92</v>
       </c>
       <c r="I43" t="n">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="J43" t="n">
-        <v>169.5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>FCGR2B</t>
+          <t>HLA-DPA1</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.007232840856048588</v>
+        <v>0.003569403051964578</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2430939226519337</v>
+        <v>0.7116104868913857</v>
       </c>
       <c r="D44" t="n">
-        <v>0.02840909090909091</v>
+        <v>0.5947368421052631</v>
       </c>
       <c r="E44" t="n">
-        <v>0.004417027557620122</v>
+        <v>0.006383936162488342</v>
       </c>
       <c r="F44" t="n">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="G44" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H44" t="n">
-        <v>117.5</v>
+        <v>162</v>
       </c>
       <c r="I44" t="n">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="J44" t="n">
-        <v>129.375</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>S100A12</t>
+          <t>HLA-DPB1</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.1110008761814412</v>
+        <v>0.002724374423445123</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2642642642642642</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="D45" t="n">
-        <v>0.07386363636363637</v>
+        <v>0.5526315789473684</v>
       </c>
       <c r="E45" t="n">
-        <v>0.01125339475781281</v>
+        <v>0.00629534593436136</v>
       </c>
       <c r="F45" t="n">
-        <v>200</v>
+        <v>112</v>
       </c>
       <c r="G45" t="n">
-        <v>199</v>
+        <v>140.5</v>
       </c>
       <c r="H45" t="n">
-        <v>176</v>
+        <v>140.5</v>
       </c>
       <c r="I45" t="n">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="J45" t="n">
-        <v>190.25</v>
+        <v>142.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>XCL1</t>
+          <t>CD40</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.007657513191223864</v>
+        <v>0.001450892623800448</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1942604856512141</v>
+        <v>0.6291390728476821</v>
       </c>
       <c r="D46" t="n">
-        <v>0.01136363636363636</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="E46" t="n">
-        <v>0.004311805401091668</v>
+        <v>0.004628914340852763</v>
       </c>
       <c r="F46" t="n">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="G46" t="n">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="H46" t="n">
-        <v>64.5</v>
+        <v>34</v>
       </c>
       <c r="I46" t="n">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="J46" t="n">
-        <v>96.125</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>XCL2</t>
+          <t>CD247</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01257375754145308</v>
+        <v>0.005084895711570772</v>
       </c>
       <c r="C47" t="n">
-        <v>0.2095238095238095</v>
+        <v>0.7569721115537849</v>
       </c>
       <c r="D47" t="n">
-        <v>0.02272727272727273</v>
+        <v>0.6789473684210526</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004649358218753267</v>
+        <v>0.006605557810485328</v>
       </c>
       <c r="F47" t="n">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="G47" t="n">
-        <v>104</v>
+        <v>187.5</v>
       </c>
       <c r="H47" t="n">
-        <v>100</v>
+        <v>187.5</v>
       </c>
       <c r="I47" t="n">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="J47" t="n">
-        <v>115.75</v>
+        <v>187.25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>GSN</t>
+          <t>RPL35A</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>0.001746573605701315</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1500426257459506</v>
+        <v>0.625</v>
       </c>
       <c r="D48" t="n">
-        <v>0.005681818181818182</v>
+        <v>0.4</v>
       </c>
       <c r="E48" t="n">
-        <v>0.003033648108224954</v>
+        <v>0.004176257574648094</v>
       </c>
       <c r="F48" t="n">
-        <v>48.5</v>
+        <v>47</v>
       </c>
       <c r="G48" t="n">
-        <v>51.5</v>
+        <v>30</v>
       </c>
       <c r="H48" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I48" t="n">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="J48" t="n">
-        <v>59.25</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HLA-DMB</t>
+          <t>RPL9</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.007537793636153559</v>
+        <v>0.00265577990569336</v>
       </c>
       <c r="C49" t="n">
-        <v>0.247887323943662</v>
+        <v>0.6713780918727915</v>
       </c>
       <c r="D49" t="n">
-        <v>0.05681818181818182</v>
+        <v>0.5105263157894737</v>
       </c>
       <c r="E49" t="n">
-        <v>0.005682994701632133</v>
+        <v>0.005684822698392242</v>
       </c>
       <c r="F49" t="n">
+        <v>109</v>
+      </c>
+      <c r="G49" t="n">
         <v>112</v>
       </c>
-      <c r="G49" t="n">
-        <v>177</v>
-      </c>
       <c r="H49" t="n">
-        <v>159.5</v>
+        <v>112</v>
       </c>
       <c r="I49" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J49" t="n">
-        <v>147.875</v>
+        <v>118.5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CD1C</t>
+          <t>CST3</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.02903062533789192</v>
+        <v>0.002385181574317546</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1842931937172775</v>
+        <v>0.6737588652482269</v>
       </c>
       <c r="D50" t="n">
-        <v>0.03977272727272727</v>
+        <v>0.5157894736842105</v>
       </c>
       <c r="E50" t="n">
-        <v>0.007832707095186324</v>
+        <v>0.005697329421087507</v>
       </c>
       <c r="F50" t="n">
-        <v>163</v>
+        <v>88</v>
       </c>
       <c r="G50" t="n">
-        <v>73</v>
+        <v>116.5</v>
       </c>
       <c r="H50" t="n">
-        <v>139</v>
+        <v>116.5</v>
       </c>
       <c r="I50" t="n">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="J50" t="n">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>IRF8</t>
+          <t>RPL30</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01688846710801692</v>
+        <v>0.003403325933528911</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2547033285094066</v>
+        <v>0.6810035842293907</v>
       </c>
       <c r="D51" t="n">
-        <v>0.03977272727272727</v>
+        <v>0.531578947368421</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004436112477131936</v>
+        <v>0.005832583916639082</v>
       </c>
       <c r="F51" t="n">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="G51" t="n">
-        <v>189.5</v>
+        <v>124</v>
       </c>
       <c r="H51" t="n">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="I51" t="n">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="J51" t="n">
-        <v>150.125</v>
+        <v>134.25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>HAVCR2</t>
+          <t>RPS15A</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.0191592205973831</v>
+        <v>0.003747856261868594</v>
       </c>
       <c r="C52" t="n">
-        <v>0.2592047128129603</v>
+        <v>0.6884057971014492</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1022727272727273</v>
+        <v>0.5473684210526316</v>
       </c>
       <c r="E52" t="n">
-        <v>0.006470168835724106</v>
+        <v>0.005901097321980808</v>
       </c>
       <c r="F52" t="n">
         <v>150</v>
       </c>
       <c r="G52" t="n">
-        <v>192.5</v>
+        <v>137</v>
       </c>
       <c r="H52" t="n">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="I52" t="n">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="J52" t="n">
-        <v>171.625</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>MZB1</t>
+          <t>AC092580.4</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>0.003894684807341696</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1500426257459506</v>
+        <v>0.7011070110701108</v>
       </c>
       <c r="D53" t="n">
-        <v>0.005681818181818182</v>
+        <v>0.5736842105263158</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002941032374544445</v>
+        <v>0.005630454553711544</v>
       </c>
       <c r="F53" t="n">
-        <v>48.5</v>
+        <v>158</v>
       </c>
       <c r="G53" t="n">
-        <v>51.5</v>
+        <v>149.5</v>
       </c>
       <c r="H53" t="n">
-        <v>42</v>
+        <v>149.5</v>
       </c>
       <c r="I53" t="n">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="J53" t="n">
-        <v>57.75</v>
+        <v>146.25</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>LGALS2</t>
+          <t>HLA-C</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.03955565499055157</v>
+        <v>0.001684121380183098</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2547033285094066</v>
+        <v>0.6418918918918919</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1420454545454546</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="E54" t="n">
-        <v>0.009400336067754837</v>
+        <v>0.00459787255484512</v>
       </c>
       <c r="F54" t="n">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="G54" t="n">
-        <v>189.5</v>
+        <v>60</v>
       </c>
       <c r="H54" t="n">
-        <v>204</v>
+        <v>60</v>
       </c>
       <c r="I54" t="n">
-        <v>179</v>
+        <v>35</v>
       </c>
       <c r="J54" t="n">
-        <v>187.125</v>
+        <v>49.25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>FPR1</t>
+          <t>CFP</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.009608267103423258</v>
+        <v>0.001265378404340464</v>
       </c>
       <c r="C55" t="n">
-        <v>0.249645390070922</v>
+        <v>0.625</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1363636363636364</v>
+        <v>0.4</v>
       </c>
       <c r="E55" t="n">
-        <v>0.009238086447076951</v>
+        <v>0.00486385439986622</v>
       </c>
       <c r="F55" t="n">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="G55" t="n">
-        <v>181</v>
+        <v>30</v>
       </c>
       <c r="H55" t="n">
-        <v>200.5</v>
+        <v>30</v>
       </c>
       <c r="I55" t="n">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="J55" t="n">
-        <v>169.625</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MAFB</t>
+          <t>CTSW</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.05443439290858555</v>
+        <v>0.003349542170390743</v>
       </c>
       <c r="C56" t="n">
-        <v>0.2626865671641791</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1477272727272727</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="E56" t="n">
-        <v>0.01340817488407521</v>
+        <v>0.005794560758928974</v>
       </c>
       <c r="F56" t="n">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="G56" t="n">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="H56" t="n">
-        <v>206.5</v>
+        <v>153</v>
       </c>
       <c r="I56" t="n">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="J56" t="n">
-        <v>196.625</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MAP3K7CL</t>
+          <t>LGALS1</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.0127445638557286</v>
+        <v>0.003804038155690159</v>
       </c>
       <c r="C57" t="n">
-        <v>0.163265306122449</v>
+        <v>0.7089552238805971</v>
       </c>
       <c r="D57" t="n">
-        <v>0.02272727272727273</v>
+        <v>0.5894736842105263</v>
       </c>
       <c r="E57" t="n">
-        <v>0.004734272671331517</v>
+        <v>0.005932889272629625</v>
       </c>
       <c r="F57" t="n">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="G57" t="n">
-        <v>56</v>
+        <v>159.5</v>
       </c>
       <c r="H57" t="n">
-        <v>100</v>
+        <v>159.5</v>
       </c>
       <c r="I57" t="n">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="J57" t="n">
-        <v>105</v>
+        <v>157.75</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CLU</t>
+          <t>HLA-DRA</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01136363636363636</v>
+        <v>0.004164885405069632</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1940463065049614</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="D58" t="n">
-        <v>0.01704545454545454</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="E58" t="n">
-        <v>0.004105010358390724</v>
+        <v>0.006334109115252396</v>
       </c>
       <c r="F58" t="n">
-        <v>125.5</v>
+        <v>166</v>
       </c>
       <c r="G58" t="n">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="H58" t="n">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c r="I58" t="n">
-        <v>114</v>
+        <v>179</v>
       </c>
       <c r="J58" t="n">
-        <v>102.125</v>
+        <v>170.75</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>FCGR3A</t>
+          <t>RPS4X</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.07959445943401876</v>
+        <v>0.001466948247765406</v>
       </c>
       <c r="C59" t="n">
-        <v>0.2441054091539528</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D59" t="n">
-        <v>0.07386363636363637</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="E59" t="n">
-        <v>0.008605969878526989</v>
+        <v>0.004824810899975749</v>
       </c>
       <c r="F59" t="n">
-        <v>195</v>
+        <v>26</v>
       </c>
       <c r="G59" t="n">
-        <v>169</v>
+        <v>40.5</v>
       </c>
       <c r="H59" t="n">
-        <v>176</v>
+        <v>40.5</v>
       </c>
       <c r="I59" t="n">
-        <v>172</v>
+        <v>59</v>
       </c>
       <c r="J59" t="n">
-        <v>178</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CCL5</t>
+          <t>CEBPD</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.0002455037798955629</v>
+        <v>0.004309530830555992</v>
       </c>
       <c r="C60" t="n">
-        <v>0.2112845138055222</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="D60" t="n">
-        <v>0.02272727272727273</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="E60" t="n">
-        <v>0.00494047941147248</v>
+        <v>0.006010372424866109</v>
       </c>
       <c r="F60" t="n">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="G60" t="n">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="H60" t="n">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="I60" t="n">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="J60" t="n">
-        <v>103.25</v>
+        <v>167.5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>FOLR3</t>
+          <t>NCR3</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.005882485035378609</v>
+        <v>0.002844860426319867</v>
       </c>
       <c r="C61" t="n">
-        <v>0.2468443197755961</v>
+        <v>0.6713780918727915</v>
       </c>
       <c r="D61" t="n">
-        <v>0.03409090909090909</v>
+        <v>0.5105263157894737</v>
       </c>
       <c r="E61" t="n">
-        <v>0.004768978313722117</v>
+        <v>0.005243059318554975</v>
       </c>
       <c r="F61" t="n">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="G61" t="n">
-        <v>175.5</v>
+        <v>112</v>
       </c>
       <c r="H61" t="n">
-        <v>129.5</v>
+        <v>112</v>
       </c>
       <c r="I61" t="n">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="J61" t="n">
-        <v>135</v>
+        <v>108.25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>IGLL5</t>
+          <t>FCGRT</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.001684672713561753</v>
+        <v>0.001957865791873706</v>
       </c>
       <c r="C62" t="n">
-        <v>0.2189054726368159</v>
+        <v>0.657439446366782</v>
       </c>
       <c r="D62" t="n">
-        <v>0.02840909090909091</v>
+        <v>0.4789473684210526</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003337657938533972</v>
+        <v>0.005566896262753783</v>
       </c>
       <c r="F62" t="n">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="G62" t="n">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="H62" t="n">
-        <v>117.5</v>
+        <v>92</v>
       </c>
       <c r="I62" t="n">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="J62" t="n">
-        <v>106.875</v>
+        <v>90.75</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>F13A1</t>
+          <t>RPL10</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>0.002127702355071847</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1687440076701822</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="D63" t="n">
-        <v>0.01136363636363636</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="E63" t="n">
-        <v>0.002911390479638013</v>
+        <v>0.005199591537096339</v>
       </c>
       <c r="F63" t="n">
-        <v>48.5</v>
+        <v>70</v>
       </c>
       <c r="G63" t="n">
-        <v>60.5</v>
+        <v>65.5</v>
       </c>
       <c r="H63" t="n">
-        <v>64.5</v>
+        <v>65.5</v>
       </c>
       <c r="I63" t="n">
         <v>86</v>
       </c>
       <c r="J63" t="n">
-        <v>64.875</v>
+        <v>71.75</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>HLA-DPB1</t>
+          <t>RPL10A</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01490233942389525</v>
+        <v>0.001580276989240848</v>
       </c>
       <c r="C64" t="n">
-        <v>0.2381596752368065</v>
+        <v>0.6354515050167224</v>
       </c>
       <c r="D64" t="n">
-        <v>0.03977272727272727</v>
+        <v>0.4263157894736842</v>
       </c>
       <c r="E64" t="n">
-        <v>0.006728071156436584</v>
+        <v>0.004679560436236492</v>
       </c>
       <c r="F64" t="n">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="G64" t="n">
-        <v>156</v>
+        <v>45.5</v>
       </c>
       <c r="H64" t="n">
-        <v>139</v>
+        <v>45.5</v>
       </c>
       <c r="I64" t="n">
-        <v>155</v>
+        <v>41</v>
       </c>
       <c r="J64" t="n">
-        <v>147.25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>HLA-DRB1</t>
+          <t>RPL5</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.008340498323637318</v>
+        <v>0.001725127126989691</v>
       </c>
       <c r="C65" t="n">
-        <v>0.2324966974900925</v>
+        <v>0.6354515050167224</v>
       </c>
       <c r="D65" t="n">
-        <v>0.03977272727272727</v>
+        <v>0.4263157894736842</v>
       </c>
       <c r="E65" t="n">
-        <v>0.005474966514627307</v>
+        <v>0.004464420238981217</v>
       </c>
       <c r="F65" t="n">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="G65" t="n">
-        <v>143</v>
+        <v>45.5</v>
       </c>
       <c r="H65" t="n">
-        <v>139</v>
+        <v>45.5</v>
       </c>
       <c r="I65" t="n">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="J65" t="n">
-        <v>134.5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>IFI30</t>
+          <t>TCL1A</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.02926943858783225</v>
+        <v>0.001353754507748847</v>
       </c>
       <c r="C66" t="n">
-        <v>0.2482369534555712</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="D66" t="n">
-        <v>0.09659090909090909</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="E66" t="n">
-        <v>0.00876067878714293</v>
+        <v>0.004450673139209016</v>
       </c>
       <c r="F66" t="n">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="G66" t="n">
-        <v>178.5</v>
+        <v>13</v>
       </c>
       <c r="H66" t="n">
-        <v>191.5</v>
+        <v>13</v>
       </c>
       <c r="I66" t="n">
-        <v>174</v>
+        <v>26</v>
       </c>
       <c r="J66" t="n">
-        <v>177</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>HLA-DPA1</t>
+          <t>VPREB3</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.04324122500140077</v>
+        <v>0.0008057279368209857</v>
       </c>
       <c r="C67" t="n">
-        <v>0.2678843226788432</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="D67" t="n">
-        <v>0.07386363636363637</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="E67" t="n">
-        <v>0.006178978069470533</v>
+        <v>0.003800428247027532</v>
       </c>
       <c r="F67" t="n">
-        <v>180</v>
+        <v>2</v>
       </c>
       <c r="G67" t="n">
-        <v>202.5</v>
+        <v>2</v>
       </c>
       <c r="H67" t="n">
-        <v>176</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="J67" t="n">
-        <v>176.875</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PLBD1</t>
+          <t>RPL21</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.0116136322481486</v>
+        <v>0.002529019716153548</v>
       </c>
       <c r="C68" t="n">
-        <v>0.2178217821782178</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D68" t="n">
-        <v>0.04545454545454546</v>
+        <v>0.5</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004402773221928666</v>
+        <v>0.00525001744978119</v>
       </c>
       <c r="F68" t="n">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="G68" t="n">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="H68" t="n">
-        <v>146.5</v>
+        <v>104</v>
       </c>
       <c r="I68" t="n">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="J68" t="n">
-        <v>129.625</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SRGN</t>
+          <t>RPL3</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>3.246753246753247e-05</v>
+        <v>0.001610255290492102</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1936193619361936</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D69" t="n">
-        <v>0.01704545454545454</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="E69" t="n">
-        <v>0.003715481240530788</v>
+        <v>0.004880285310356058</v>
       </c>
       <c r="F69" t="n">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="G69" t="n">
-        <v>85</v>
+        <v>40.5</v>
       </c>
       <c r="H69" t="n">
-        <v>83</v>
+        <v>40.5</v>
       </c>
       <c r="I69" t="n">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="J69" t="n">
-        <v>86.5</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>C5AR1</t>
+          <t>CD74</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01930023609268342</v>
+        <v>0.003037134380883283</v>
       </c>
       <c r="C70" t="n">
-        <v>0.2592047128129603</v>
+        <v>0.6934306569343066</v>
       </c>
       <c r="D70" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.5578947368421052</v>
       </c>
       <c r="E70" t="n">
-        <v>0.007067195211082718</v>
+        <v>0.005791639954473433</v>
       </c>
       <c r="F70" t="n">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="G70" t="n">
-        <v>192.5</v>
+        <v>143.5</v>
       </c>
       <c r="H70" t="n">
-        <v>189.5</v>
+        <v>143.5</v>
       </c>
       <c r="I70" t="n">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="J70" t="n">
-        <v>173.75</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>IL1B</t>
+          <t>MARCH1</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.002434630479475142</v>
+        <v>0.001044093173891518</v>
       </c>
       <c r="C71" t="n">
-        <v>0.2485875706214689</v>
+        <v>0.59375</v>
       </c>
       <c r="D71" t="n">
-        <v>0.05113636363636364</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004231463118967637</v>
+        <v>0.003528865237647458</v>
       </c>
       <c r="F71" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="G71" t="n">
-        <v>180</v>
+        <v>7.5</v>
       </c>
       <c r="H71" t="n">
-        <v>151.5</v>
+        <v>7.5</v>
       </c>
       <c r="I71" t="n">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="J71" t="n">
-        <v>134.625</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>PRF1</t>
+          <t>S100A8</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.02634205587810167</v>
+        <v>0.002185381760900123</v>
       </c>
       <c r="C72" t="n">
-        <v>0.2294654498044328</v>
+        <v>0.6462585034013606</v>
       </c>
       <c r="D72" t="n">
-        <v>0.05113636363636364</v>
+        <v>0.4526315789473684</v>
       </c>
       <c r="E72" t="n">
-        <v>0.007036463955245514</v>
+        <v>0.005284307539705936</v>
       </c>
       <c r="F72" t="n">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="G72" t="n">
-        <v>142</v>
+        <v>70.5</v>
       </c>
       <c r="H72" t="n">
-        <v>151.5</v>
+        <v>70.5</v>
       </c>
       <c r="I72" t="n">
-        <v>161</v>
+        <v>96</v>
       </c>
       <c r="J72" t="n">
-        <v>153.375</v>
+        <v>78.25</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CTSW</t>
+          <t>CFD</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.00818565006321053</v>
+        <v>0.002294306778817233</v>
       </c>
       <c r="C73" t="n">
-        <v>0.2162162162162162</v>
+        <v>0.6690140845070423</v>
       </c>
       <c r="D73" t="n">
-        <v>0.02840909090909091</v>
+        <v>0.5052631578947369</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004351170173854029</v>
+        <v>0.005866508424369955</v>
       </c>
       <c r="F73" t="n">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="G73" t="n">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="H73" t="n">
-        <v>117.5</v>
+        <v>107</v>
       </c>
       <c r="I73" t="n">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="J73" t="n">
-        <v>117.875</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MAL</t>
+          <t>CCL4</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.01637012987012992</v>
+        <v>0.003206185721735877</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1187584345479082</v>
+        <v>0.7011070110701108</v>
       </c>
       <c r="D74" t="n">
-        <v>0.02840909090909091</v>
+        <v>0.5736842105263158</v>
       </c>
       <c r="E74" t="n">
-        <v>0.003737987994232852</v>
+        <v>0.006106375303842154</v>
       </c>
       <c r="F74" t="n">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="G74" t="n">
-        <v>40</v>
+        <v>149.5</v>
       </c>
       <c r="H74" t="n">
-        <v>117.5</v>
+        <v>149.5</v>
       </c>
       <c r="I74" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="J74" t="n">
-        <v>103.125</v>
+        <v>150.5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>FCN1</t>
+          <t>HLA-B</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.0301856489028637</v>
+        <v>0.003270667025925633</v>
       </c>
       <c r="C75" t="n">
-        <v>0.2670713201820941</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="D75" t="n">
-        <v>0.1079545454545455</v>
+        <v>0.5526315789473684</v>
       </c>
       <c r="E75" t="n">
-        <v>0.006816941940688917</v>
+        <v>0.005398299529893885</v>
       </c>
       <c r="F75" t="n">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="G75" t="n">
-        <v>201</v>
+        <v>140.5</v>
       </c>
       <c r="H75" t="n">
-        <v>194.5</v>
+        <v>140.5</v>
       </c>
       <c r="I75" t="n">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="J75" t="n">
-        <v>180.375</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>HLA-DQA1</t>
+          <t>LGALS2</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.01481737362131559</v>
+        <v>0.002241787780511683</v>
       </c>
       <c r="C76" t="n">
-        <v>0.2349799732977303</v>
+        <v>0.6529209621993127</v>
       </c>
       <c r="D76" t="n">
-        <v>0.05681818181818182</v>
+        <v>0.468421052631579</v>
       </c>
       <c r="E76" t="n">
-        <v>0.005636710136284769</v>
+        <v>0.00555193294391635</v>
       </c>
       <c r="F76" t="n">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="G76" t="n">
-        <v>151</v>
+        <v>83</v>
       </c>
       <c r="H76" t="n">
-        <v>159.5</v>
+        <v>83</v>
       </c>
       <c r="I76" t="n">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="J76" t="n">
-        <v>147.625</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>KLRC1</t>
+          <t>RPL23A</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.006228670709541957</v>
+        <v>0.002418151715200151</v>
       </c>
       <c r="C77" t="n">
-        <v>0.2244897959183673</v>
+        <v>0.6737588652482269</v>
       </c>
       <c r="D77" t="n">
-        <v>0.02272727272727273</v>
+        <v>0.5157894736842105</v>
       </c>
       <c r="E77" t="n">
-        <v>0.002957667529964542</v>
+        <v>0.00574258916582637</v>
       </c>
       <c r="F77" t="n">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="G77" t="n">
-        <v>137</v>
+        <v>116.5</v>
       </c>
       <c r="H77" t="n">
-        <v>100</v>
+        <v>116.5</v>
       </c>
       <c r="I77" t="n">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="J77" t="n">
-        <v>108.5</v>
+        <v>117.5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CMTM5</t>
+          <t>RPL32</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>0.001762603047959525</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1687440076701822</v>
+        <v>0.6418918918918919</v>
       </c>
       <c r="D78" t="n">
-        <v>0.01136363636363636</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002314607176775799</v>
+        <v>0.00532913205631282</v>
       </c>
       <c r="F78" t="n">
-        <v>48.5</v>
+        <v>48</v>
       </c>
       <c r="G78" t="n">
-        <v>60.5</v>
+        <v>60</v>
       </c>
       <c r="H78" t="n">
-        <v>64.5</v>
+        <v>60</v>
       </c>
       <c r="I78" t="n">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="J78" t="n">
-        <v>61.625</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>IGSF6</t>
+          <t>RPL11</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.01346671459671097</v>
+        <v>0.002603228932459108</v>
       </c>
       <c r="C79" t="n">
-        <v>0.2517882689556509</v>
+        <v>0.6643356643356644</v>
       </c>
       <c r="D79" t="n">
-        <v>0.1420454545454546</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="E79" t="n">
-        <v>0.008671962691606224</v>
+        <v>0.005615615428004296</v>
       </c>
       <c r="F79" t="n">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="G79" t="n">
-        <v>186</v>
+        <v>101.5</v>
       </c>
       <c r="H79" t="n">
-        <v>204</v>
+        <v>101.5</v>
       </c>
       <c r="I79" t="n">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="J79" t="n">
-        <v>174.75</v>
+        <v>108.25</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>IGFBP7</t>
+          <t>RPL13A</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.009063724526223001</v>
+        <v>0.001835785183634532</v>
       </c>
       <c r="C80" t="n">
-        <v>0.2588235294117647</v>
+        <v>0.6506849315068494</v>
       </c>
       <c r="D80" t="n">
-        <v>0.07954545454545454</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="E80" t="n">
-        <v>0.005787607724044368</v>
+        <v>0.005087918799280384</v>
       </c>
       <c r="F80" t="n">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="G80" t="n">
-        <v>191</v>
+        <v>78.5</v>
       </c>
       <c r="H80" t="n">
-        <v>181.5</v>
+        <v>78.5</v>
       </c>
       <c r="I80" t="n">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="J80" t="n">
-        <v>158.625</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>TIGIT</t>
+          <t>GZMK</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.00293840155907034</v>
+        <v>0.004096327796532363</v>
       </c>
       <c r="C81" t="n">
-        <v>0.2349799732977303</v>
+        <v>0.7063197026022305</v>
       </c>
       <c r="D81" t="n">
-        <v>0.03409090909090909</v>
+        <v>0.5842105263157895</v>
       </c>
       <c r="E81" t="n">
-        <v>0.003384644246111689</v>
+        <v>0.006014889357077938</v>
       </c>
       <c r="F81" t="n">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="G81" t="n">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H81" t="n">
-        <v>129.5</v>
+        <v>156</v>
       </c>
       <c r="I81" t="n">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="J81" t="n">
-        <v>119.375</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ADAM28</t>
+          <t>B2M</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>0.001334480403188406</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1685823754789272</v>
+        <v>0.6291390728476821</v>
       </c>
       <c r="D82" t="n">
-        <v>0.005681818181818182</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="E82" t="n">
-        <v>0.001702531089927834</v>
+        <v>0.004559596326474351</v>
       </c>
       <c r="F82" t="n">
-        <v>48.5</v>
+        <v>20</v>
       </c>
       <c r="G82" t="n">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="H82" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I82" t="n">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="J82" t="n">
-        <v>51.375</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>PRSS23</t>
+          <t>EEF1A1</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.004185447428839948</v>
+        <v>0.001544154419855276</v>
       </c>
       <c r="C83" t="n">
-        <v>0.2039397450753186</v>
+        <v>0.6312292358803987</v>
       </c>
       <c r="D83" t="n">
-        <v>0.02272727272727273</v>
+        <v>0.4157894736842105</v>
       </c>
       <c r="E83" t="n">
-        <v>0.00295376868261538</v>
+        <v>0.004711588158710172</v>
       </c>
       <c r="F83" t="n">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="G83" t="n">
-        <v>98.5</v>
+        <v>37</v>
       </c>
       <c r="H83" t="n">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="I83" t="n">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="J83" t="n">
-        <v>96.375</v>
+        <v>37.75</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>GZMA</t>
+          <t>RPS5</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1.082251082251082e-05</v>
+        <v>0.002479713349953522</v>
       </c>
       <c r="C84" t="n">
-        <v>0.2065727699530517</v>
+        <v>0.657439446366782</v>
       </c>
       <c r="D84" t="n">
-        <v>0.02272727272727273</v>
+        <v>0.4789473684210526</v>
       </c>
       <c r="E84" t="n">
-        <v>0.00312917100257043</v>
+        <v>0.00494810664007758</v>
       </c>
       <c r="F84" t="n">
-        <v>67.5</v>
+        <v>94</v>
       </c>
       <c r="G84" t="n">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="H84" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="I84" t="n">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="J84" t="n">
-        <v>91.875</v>
+        <v>85.75</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>IFITM3</t>
+          <t>RPS12</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.04428149807298461</v>
+        <v>0.002009295928376929</v>
       </c>
       <c r="C85" t="n">
-        <v>0.2510699001426533</v>
+        <v>0.6418918918918919</v>
       </c>
       <c r="D85" t="n">
-        <v>0.1079545454545455</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="E85" t="n">
-        <v>0.007450984072048639</v>
+        <v>0.00519305009623614</v>
       </c>
       <c r="F85" t="n">
-        <v>181</v>
+        <v>62</v>
       </c>
       <c r="G85" t="n">
-        <v>184.5</v>
+        <v>60</v>
       </c>
       <c r="H85" t="n">
-        <v>194.5</v>
+        <v>60</v>
       </c>
       <c r="I85" t="n">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="J85" t="n">
-        <v>181</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>CYBA</t>
+          <t>RPL18A</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>0.001795030475984496</v>
       </c>
       <c r="C86" t="n">
-        <v>0.2025316455696203</v>
+        <v>0.6354515050167224</v>
       </c>
       <c r="D86" t="n">
-        <v>0.01136363636363636</v>
+        <v>0.4263157894736842</v>
       </c>
       <c r="E86" t="n">
-        <v>0.002136999566610909</v>
+        <v>0.004816834799429789</v>
       </c>
       <c r="F86" t="n">
-        <v>48.5</v>
+        <v>51</v>
       </c>
       <c r="G86" t="n">
-        <v>95.5</v>
+        <v>45.5</v>
       </c>
       <c r="H86" t="n">
-        <v>64.5</v>
+        <v>45.5</v>
       </c>
       <c r="I86" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J86" t="n">
-        <v>68.875</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>CCL4</t>
+          <t>TIGIT</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.01740891458875344</v>
+        <v>0.003781663152471664</v>
       </c>
       <c r="C87" t="n">
-        <v>0.2233502538071066</v>
+        <v>0.7011070110701108</v>
       </c>
       <c r="D87" t="n">
-        <v>0.03409090909090909</v>
+        <v>0.5736842105263158</v>
       </c>
       <c r="E87" t="n">
-        <v>0.004345799445475216</v>
+        <v>0.005637980159084691</v>
       </c>
       <c r="F87" t="n">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G87" t="n">
-        <v>134.5</v>
+        <v>149.5</v>
       </c>
       <c r="H87" t="n">
-        <v>129.5</v>
+        <v>149.5</v>
       </c>
       <c r="I87" t="n">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="J87" t="n">
-        <v>133.25</v>
+        <v>145.25</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>AQP3</t>
+          <t>RPL27A</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.1059783549783546</v>
+        <v>0.002037674093719613</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1506849315068493</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="D88" t="n">
-        <v>0.02272727272727273</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="E88" t="n">
-        <v>0.006532367900606149</v>
+        <v>0.00482483144982887</v>
       </c>
       <c r="F88" t="n">
-        <v>198</v>
+        <v>64</v>
       </c>
       <c r="G88" t="n">
-        <v>53</v>
+        <v>65.5</v>
       </c>
       <c r="H88" t="n">
-        <v>100</v>
+        <v>65.5</v>
       </c>
       <c r="I88" t="n">
-        <v>153</v>
+        <v>60</v>
       </c>
       <c r="J88" t="n">
-        <v>126</v>
+        <v>63.75</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>LTB</t>
+          <t>GZMA</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.03736255411255419</v>
+        <v>0.002993833876364327</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1327300150829563</v>
+        <v>0.6834532374100719</v>
       </c>
       <c r="D89" t="n">
-        <v>0.02840909090909091</v>
+        <v>0.5368421052631579</v>
       </c>
       <c r="E89" t="n">
-        <v>0.009162226618526071</v>
+        <v>0.005269335623741206</v>
       </c>
       <c r="F89" t="n">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="G89" t="n">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="H89" t="n">
-        <v>117.5</v>
+        <v>129</v>
       </c>
       <c r="I89" t="n">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="J89" t="n">
-        <v>127.375</v>
+        <v>119.75</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>C1orf162</t>
+          <t>FTL</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.05559988068974672</v>
+        <v>0.001959356967707721</v>
       </c>
       <c r="C90" t="n">
-        <v>0.2521489971346705</v>
+        <v>0.6597222222222222</v>
       </c>
       <c r="D90" t="n">
-        <v>0.05681818181818182</v>
+        <v>0.4842105263157895</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004144963290911591</v>
+        <v>0.004784382135822845</v>
       </c>
       <c r="F90" t="n">
-        <v>188</v>
+        <v>60</v>
       </c>
       <c r="G90" t="n">
-        <v>187</v>
+        <v>97</v>
       </c>
       <c r="H90" t="n">
-        <v>159.5</v>
+        <v>97</v>
       </c>
       <c r="I90" t="n">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="J90" t="n">
-        <v>162.625</v>
+        <v>76.75</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>CST3</t>
+          <t>RPS18</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.001567249387104921</v>
+        <v>0.001763624317142419</v>
       </c>
       <c r="C91" t="n">
-        <v>0.2427586206896552</v>
+        <v>0.6418918918918919</v>
       </c>
       <c r="D91" t="n">
-        <v>0.05681818181818182</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="E91" t="n">
-        <v>0.004575214867646392</v>
+        <v>0.005059709336352666</v>
       </c>
       <c r="F91" t="n">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="G91" t="n">
-        <v>163.5</v>
+        <v>60</v>
       </c>
       <c r="H91" t="n">
-        <v>159.5</v>
+        <v>60</v>
       </c>
       <c r="I91" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="J91" t="n">
-        <v>133</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>GZMK</t>
+          <t>EAF2</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.02642857142857144</v>
+        <v>0.001954692158009022</v>
       </c>
       <c r="C92" t="n">
-        <v>0.1497872340425532</v>
+        <v>0.6462585034013606</v>
       </c>
       <c r="D92" t="n">
-        <v>0.02272727272727273</v>
+        <v>0.4526315789473684</v>
       </c>
       <c r="E92" t="n">
-        <v>0.006384124929664642</v>
+        <v>0.005092557073263252</v>
       </c>
       <c r="F92" t="n">
-        <v>160</v>
+        <v>58</v>
       </c>
       <c r="G92" t="n">
-        <v>50</v>
+        <v>70.5</v>
       </c>
       <c r="H92" t="n">
-        <v>100</v>
+        <v>70.5</v>
       </c>
       <c r="I92" t="n">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="J92" t="n">
-        <v>115</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>RAMP1</t>
+          <t>CD37</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.003515181168655746</v>
+        <v>0.003711719549155737</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1931942919868277</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="D93" t="n">
-        <v>0.01704545454545454</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003313327741069508</v>
+        <v>0.005503809835260927</v>
       </c>
       <c r="F93" t="n">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="G93" t="n">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="H93" t="n">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="I93" t="n">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J93" t="n">
-        <v>90.5</v>
+        <v>142.25</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>TREML1</t>
+          <t>AIF1</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.02559738372698065</v>
+        <v>0.002445872035240963</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2128174123337364</v>
+        <v>0.6713780918727915</v>
       </c>
       <c r="D94" t="n">
-        <v>0.04545454545454546</v>
+        <v>0.5105263157894737</v>
       </c>
       <c r="E94" t="n">
-        <v>0.005160259801094782</v>
+        <v>0.005409305625688818</v>
       </c>
       <c r="F94" t="n">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="G94" t="n">
-        <v>111.5</v>
+        <v>112</v>
       </c>
       <c r="H94" t="n">
-        <v>146.5</v>
+        <v>112</v>
       </c>
       <c r="I94" t="n">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="J94" t="n">
-        <v>137.75</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>LAT2</t>
+          <t>TSPAN13</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.004436626404702178</v>
+        <v>0.001109012656338802</v>
       </c>
       <c r="C95" t="n">
-        <v>0.2410958904109589</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="D95" t="n">
-        <v>0.01704545454545454</v>
+        <v>0.3</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002148427453533661</v>
+        <v>0.00347786921945087</v>
       </c>
       <c r="F95" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="G95" t="n">
-        <v>161</v>
+        <v>5</v>
       </c>
       <c r="H95" t="n">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="I95" t="n">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="J95" t="n">
-        <v>103</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>EFHD2</t>
+          <t>NOSIP</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.02947126101524792</v>
+        <v>0.004602709781941646</v>
       </c>
       <c r="C96" t="n">
-        <v>0.2507122507122507</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D96" t="n">
-        <v>0.03977272727272727</v>
+        <v>0.6</v>
       </c>
       <c r="E96" t="n">
-        <v>0.003367207199396007</v>
+        <v>0.006002884062066274</v>
       </c>
       <c r="F96" t="n">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="G96" t="n">
-        <v>183</v>
+        <v>164.5</v>
       </c>
       <c r="H96" t="n">
-        <v>139</v>
+        <v>164.5</v>
       </c>
       <c r="I96" t="n">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="J96" t="n">
-        <v>148.25</v>
+        <v>167</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>FGL2</t>
+          <t>RPS14</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.01561867723692364</v>
+        <v>0.002813647584516917</v>
       </c>
       <c r="C97" t="n">
-        <v>0.2464985994397759</v>
+        <v>0.6713780918727915</v>
       </c>
       <c r="D97" t="n">
-        <v>0.08522727272727273</v>
+        <v>0.5105263157894737</v>
       </c>
       <c r="E97" t="n">
-        <v>0.005803385427199929</v>
+        <v>0.005429675379170088</v>
       </c>
       <c r="F97" t="n">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="G97" t="n">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="H97" t="n">
-        <v>186.5</v>
+        <v>112</v>
       </c>
       <c r="I97" t="n">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="J97" t="n">
-        <v>162.125</v>
+        <v>112.25</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>FCER1G</t>
+          <t>RPS6</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.001933891825021393</v>
+        <v>0.0016052163282244</v>
       </c>
       <c r="C98" t="n">
-        <v>0.2510699001426533</v>
+        <v>0.6354515050167224</v>
       </c>
       <c r="D98" t="n">
-        <v>0.07954545454545454</v>
+        <v>0.4263157894736842</v>
       </c>
       <c r="E98" t="n">
-        <v>0.005029449743702145</v>
+        <v>0.004779352677149694</v>
       </c>
       <c r="F98" t="n">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="G98" t="n">
-        <v>184.5</v>
+        <v>45.5</v>
       </c>
       <c r="H98" t="n">
-        <v>181.5</v>
+        <v>45.5</v>
       </c>
       <c r="I98" t="n">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="J98" t="n">
-        <v>147</v>
+        <v>44</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>MYL9</t>
+          <t>HLA-A</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.004361689719139981</v>
+        <v>0.002805419732420083</v>
       </c>
       <c r="C99" t="n">
-        <v>0.2194513715710723</v>
+        <v>0.6834532374100719</v>
       </c>
       <c r="D99" t="n">
-        <v>0.02840909090909091</v>
+        <v>0.5368421052631579</v>
       </c>
       <c r="E99" t="n">
-        <v>0.002807701733984551</v>
+        <v>0.005245336017622088</v>
       </c>
       <c r="F99" t="n">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G99" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H99" t="n">
-        <v>117.5</v>
+        <v>129</v>
       </c>
       <c r="I99" t="n">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J99" t="n">
-        <v>105.625</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>GP1BA</t>
+          <t>FCER1G</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>0.001743273979600734</v>
       </c>
       <c r="C100" t="n">
-        <v>0.106280193236715</v>
+        <v>0.6506849315068494</v>
       </c>
       <c r="D100" t="n">
-        <v>0.005681818181818182</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="E100" t="n">
-        <v>0.001428196698622291</v>
+        <v>0.0052913790320823</v>
       </c>
       <c r="F100" t="n">
-        <v>48.5</v>
+        <v>46</v>
       </c>
       <c r="G100" t="n">
-        <v>32</v>
+        <v>78.5</v>
       </c>
       <c r="H100" t="n">
-        <v>42</v>
+        <v>78.5</v>
       </c>
       <c r="I100" t="n">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="J100" t="n">
-        <v>42.125</v>
+        <v>75</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>GIMAP5</t>
+          <t>LYZ</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.01146706864564007</v>
+        <v>0.004608169437513455</v>
       </c>
       <c r="C101" t="n">
-        <v>0.20536756126021</v>
+        <v>0.7251908396946565</v>
       </c>
       <c r="D101" t="n">
-        <v>0.01704545454545454</v>
+        <v>0.6210526315789473</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003805030049284944</v>
+        <v>0.005875776968808154</v>
       </c>
       <c r="F101" t="n">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="G101" t="n">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c r="H101" t="n">
-        <v>83</v>
+        <v>177</v>
       </c>
       <c r="I101" t="n">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="J101" t="n">
-        <v>106</v>
+        <v>171.25</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>PNOC</t>
+          <t>TYROBP</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.1439648967422065</v>
+        <v>0.002175581527152701</v>
       </c>
       <c r="C102" t="n">
-        <v>0.245125348189415</v>
+        <v>0.6643356643356644</v>
       </c>
       <c r="D102" t="n">
-        <v>0.04545454545454546</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="E102" t="n">
-        <v>0.00617051446328201</v>
+        <v>0.005645267375342644</v>
       </c>
       <c r="F102" t="n">
-        <v>204</v>
+        <v>73</v>
       </c>
       <c r="G102" t="n">
-        <v>171</v>
+        <v>101.5</v>
       </c>
       <c r="H102" t="n">
-        <v>146.5</v>
+        <v>101.5</v>
       </c>
       <c r="I102" t="n">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="J102" t="n">
-        <v>167.375</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>P2RX5</t>
+          <t>PNOC</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.217644464501197</v>
+        <v>0.001030291213782263</v>
       </c>
       <c r="C103" t="n">
-        <v>0.2375168690958165</v>
+        <v>0.5792682926829268</v>
       </c>
       <c r="D103" t="n">
-        <v>0.03409090909090909</v>
+        <v>0.2736842105263158</v>
       </c>
       <c r="E103" t="n">
-        <v>0.004787437728586579</v>
+        <v>0.003312953568578563</v>
       </c>
       <c r="F103" t="n">
-        <v>207</v>
+        <v>9</v>
       </c>
       <c r="G103" t="n">
-        <v>155</v>
+        <v>3</v>
       </c>
       <c r="H103" t="n">
-        <v>129.5</v>
+        <v>3</v>
       </c>
       <c r="I103" t="n">
-        <v>133</v>
+        <v>2</v>
       </c>
       <c r="J103" t="n">
-        <v>156.125</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>S100A8</t>
+          <t>CD68</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.1426565029150799</v>
+        <v>0.001427879780330414</v>
       </c>
       <c r="C104" t="n">
-        <v>0.2691131498470948</v>
+        <v>0.6462585034013606</v>
       </c>
       <c r="D104" t="n">
-        <v>0.07386363636363637</v>
+        <v>0.4526315789473684</v>
       </c>
       <c r="E104" t="n">
-        <v>0.005977964156064863</v>
+        <v>0.005226594508844372</v>
       </c>
       <c r="F104" t="n">
-        <v>203</v>
+        <v>24</v>
       </c>
       <c r="G104" t="n">
-        <v>205</v>
+        <v>70.5</v>
       </c>
       <c r="H104" t="n">
-        <v>176</v>
+        <v>70.5</v>
       </c>
       <c r="I104" t="n">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="J104" t="n">
-        <v>182.75</v>
+        <v>63.75</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>PLD4</t>
+          <t>RPS20</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>0.002599018858793653</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1614678899082569</v>
+        <v>0.6713780918727915</v>
       </c>
       <c r="D105" t="n">
-        <v>0.01136363636363636</v>
+        <v>0.5105263157894737</v>
       </c>
       <c r="E105" t="n">
-        <v>0.00172358156065016</v>
+        <v>0.004923290265288191</v>
       </c>
       <c r="F105" t="n">
-        <v>48.5</v>
+        <v>102</v>
       </c>
       <c r="G105" t="n">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="H105" t="n">
-        <v>64.5</v>
+        <v>112</v>
       </c>
       <c r="I105" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="J105" t="n">
-        <v>56.25</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>LST1</t>
+          <t>CYBA</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.02805409527071549</v>
+        <v>0.003722198039918833</v>
       </c>
       <c r="C106" t="n">
-        <v>0.2687022900763359</v>
+        <v>0.7063197026022305</v>
       </c>
       <c r="D106" t="n">
-        <v>0.1136363636363636</v>
+        <v>0.5842105263157895</v>
       </c>
       <c r="E106" t="n">
-        <v>0.006523757177340108</v>
+        <v>0.00565125674961032</v>
       </c>
       <c r="F106" t="n">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="G106" t="n">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="H106" t="n">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="I106" t="n">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="J106" t="n">
-        <v>178.5</v>
+        <v>148.25</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>NCR3</t>
+          <t>RPSA</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.1756785714285714</v>
+        <v>0.001621631832283873</v>
       </c>
       <c r="C107" t="n">
-        <v>0.1723800195886386</v>
+        <v>0.6397306397306397</v>
       </c>
       <c r="D107" t="n">
-        <v>0.02272727272727273</v>
+        <v>0.4368421052631579</v>
       </c>
       <c r="E107" t="n">
-        <v>0.005603261625193688</v>
+        <v>0.004700361514422303</v>
       </c>
       <c r="F107" t="n">
-        <v>205</v>
+        <v>36</v>
       </c>
       <c r="G107" t="n">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H107" t="n">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="I107" t="n">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="J107" t="n">
-        <v>127.5</v>
+        <v>46.75</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>PF4</t>
+          <t>RPL36</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.001534645534408472</v>
+        <v>0.002014037361863381</v>
       </c>
       <c r="C108" t="n">
-        <v>0.2115384615384615</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="D108" t="n">
-        <v>0.02272727272727273</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="E108" t="n">
-        <v>0.002764869320128948</v>
+        <v>0.004552774995525246</v>
       </c>
       <c r="F108" t="n">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G108" t="n">
-        <v>107.5</v>
+        <v>65.5</v>
       </c>
       <c r="H108" t="n">
-        <v>100</v>
+        <v>65.5</v>
       </c>
       <c r="I108" t="n">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="J108" t="n">
-        <v>92.125</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>HVCN1</t>
+          <t>IRF8</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.006021732837756553</v>
+        <v>0.002071721252575224</v>
       </c>
       <c r="C109" t="n">
-        <v>0.22</v>
+        <v>0.6418918918918919</v>
       </c>
       <c r="D109" t="n">
-        <v>0.02272727272727273</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="E109" t="n">
-        <v>0.002206081184948535</v>
+        <v>0.004729299250697797</v>
       </c>
       <c r="F109" t="n">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="G109" t="n">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="H109" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I109" t="n">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="J109" t="n">
-        <v>99.75</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>TYROBP</t>
+          <t>RPS3</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.02367115846694947</v>
+        <v>0.00260491881381795</v>
       </c>
       <c r="C110" t="n">
-        <v>0.2619047619047619</v>
+        <v>0.6643356643356644</v>
       </c>
       <c r="D110" t="n">
-        <v>0.1420454545454546</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="E110" t="n">
-        <v>0.008170856059063781</v>
+        <v>0.005062761673881971</v>
       </c>
       <c r="F110" t="n">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="G110" t="n">
-        <v>196</v>
+        <v>101.5</v>
       </c>
       <c r="H110" t="n">
-        <v>204</v>
+        <v>101.5</v>
       </c>
       <c r="I110" t="n">
-        <v>170</v>
+        <v>69</v>
       </c>
       <c r="J110" t="n">
-        <v>181.5</v>
+        <v>94</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>PTPRCAP</t>
+          <t>HLA-DQB1</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>0.003429491507808616</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1934065934065934</v>
+        <v>0.6959706959706959</v>
       </c>
       <c r="D111" t="n">
-        <v>0.01136363636363636</v>
+        <v>0.5631578947368421</v>
       </c>
       <c r="E111" t="n">
-        <v>0.001873541928740599</v>
+        <v>0.005900871919257513</v>
       </c>
       <c r="F111" t="n">
-        <v>48.5</v>
+        <v>139</v>
       </c>
       <c r="G111" t="n">
-        <v>84</v>
+        <v>145.5</v>
       </c>
       <c r="H111" t="n">
-        <v>64.5</v>
+        <v>145.5</v>
       </c>
       <c r="I111" t="n">
-        <v>61</v>
+        <v>155</v>
       </c>
       <c r="J111" t="n">
-        <v>64.5</v>
+        <v>146.25</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>FCRL6</t>
+          <t>SERPINA1</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.008652533887983373</v>
+        <v>0.002228073017884919</v>
       </c>
       <c r="C112" t="n">
-        <v>0.224203821656051</v>
+        <v>0.6529209621993127</v>
       </c>
       <c r="D112" t="n">
-        <v>0.03409090909090909</v>
+        <v>0.468421052631579</v>
       </c>
       <c r="E112" t="n">
-        <v>0.003160483438467579</v>
+        <v>0.005336493667175984</v>
       </c>
       <c r="F112" t="n">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="G112" t="n">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="H112" t="n">
-        <v>129.5</v>
+        <v>83</v>
       </c>
       <c r="I112" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J112" t="n">
-        <v>120.625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>PPBP</t>
+          <t>GSTP1</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.009918857437601696</v>
+        <v>0.004664518712719473</v>
       </c>
       <c r="C113" t="n">
-        <v>0.2115384615384615</v>
+        <v>0.7335907335907336</v>
       </c>
       <c r="D113" t="n">
-        <v>0.02272727272727273</v>
+        <v>0.6368421052631579</v>
       </c>
       <c r="E113" t="n">
-        <v>0.002834312286520509</v>
+        <v>0.006298549127306654</v>
       </c>
       <c r="F113" t="n">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="G113" t="n">
-        <v>107.5</v>
+        <v>182</v>
       </c>
       <c r="H113" t="n">
-        <v>100</v>
+        <v>182</v>
       </c>
       <c r="I113" t="n">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="J113" t="n">
-        <v>102.875</v>
+        <v>180.25</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>TCL1A</t>
+          <t>DUSP2</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.05772726731487549</v>
+        <v>0.005489496788354143</v>
       </c>
       <c r="C114" t="n">
-        <v>0.2262210796915167</v>
+        <v>0.76</v>
       </c>
       <c r="D114" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="E114" t="n">
-        <v>0.006797946599693313</v>
+        <v>0.006420134492947287</v>
       </c>
       <c r="F114" t="n">
+        <v>188</v>
+      </c>
+      <c r="G114" t="n">
         <v>189</v>
       </c>
-      <c r="G114" t="n">
-        <v>140</v>
-      </c>
       <c r="H114" t="n">
-        <v>189.5</v>
+        <v>189</v>
       </c>
       <c r="I114" t="n">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="J114" t="n">
-        <v>168.875</v>
+        <v>187.25</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>GRN</t>
+          <t>RPS23</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.009170953485788714</v>
+        <v>0.002086272968492894</v>
       </c>
       <c r="C115" t="n">
-        <v>0.2384823848238482</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="D115" t="n">
-        <v>0.07386363636363637</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="E115" t="n">
-        <v>0.004703790131416796</v>
+        <v>0.005168636630865803</v>
       </c>
       <c r="F115" t="n">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="G115" t="n">
-        <v>157.5</v>
+        <v>87</v>
       </c>
       <c r="H115" t="n">
-        <v>176</v>
+        <v>87</v>
       </c>
       <c r="I115" t="n">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="J115" t="n">
-        <v>145.625</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>FCGRT</t>
+          <t>FCN1</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.006051798437115964</v>
+        <v>0.001818749647538496</v>
       </c>
       <c r="C116" t="n">
-        <v>0.240766073871409</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="D116" t="n">
-        <v>0.1136363636363636</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="E116" t="n">
-        <v>0.006948825769665705</v>
+        <v>0.005455220772281564</v>
       </c>
       <c r="F116" t="n">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="G116" t="n">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="H116" t="n">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="I116" t="n">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="J116" t="n">
-        <v>155.5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>C2orf88</t>
+          <t>RPS27A</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.0001915584415584415</v>
+        <v>0.002178495402269284</v>
       </c>
       <c r="C117" t="n">
-        <v>0.1184387617765814</v>
+        <v>0.6506849315068494</v>
       </c>
       <c r="D117" t="n">
-        <v>0.02840909090909091</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="E117" t="n">
-        <v>0.002605747707975136</v>
+        <v>0.004550362633155228</v>
       </c>
       <c r="F117" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G117" t="n">
-        <v>39</v>
+        <v>78.5</v>
       </c>
       <c r="H117" t="n">
-        <v>117.5</v>
+        <v>78.5</v>
       </c>
       <c r="I117" t="n">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="J117" t="n">
-        <v>76.125</v>
+        <v>65.25</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>TYMP</t>
+          <t>RPLP2</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.04905862694009485</v>
+        <v>0.003089202892641981</v>
       </c>
       <c r="C118" t="n">
-        <v>0.2427586206896552</v>
+        <v>0.6690140845070423</v>
       </c>
       <c r="D118" t="n">
-        <v>0.1363636363636364</v>
+        <v>0.5052631578947369</v>
       </c>
       <c r="E118" t="n">
-        <v>0.009540970604323693</v>
+        <v>0.005206144409393162</v>
       </c>
       <c r="F118" t="n">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="G118" t="n">
-        <v>163.5</v>
+        <v>107</v>
       </c>
       <c r="H118" t="n">
-        <v>200.5</v>
+        <v>107</v>
       </c>
       <c r="I118" t="n">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="J118" t="n">
-        <v>182</v>
+        <v>107.75</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>PYCARD</t>
+          <t>RPS27</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.004223514430906323</v>
+        <v>0.003868321561800552</v>
       </c>
       <c r="C119" t="n">
-        <v>0.2384823848238482</v>
+        <v>0.7011070110701108</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0625</v>
+        <v>0.5736842105263158</v>
       </c>
       <c r="E119" t="n">
-        <v>0.004127979113021547</v>
+        <v>0.005666203423087191</v>
       </c>
       <c r="F119" t="n">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="G119" t="n">
-        <v>157.5</v>
+        <v>149.5</v>
       </c>
       <c r="H119" t="n">
-        <v>167</v>
+        <v>149.5</v>
       </c>
       <c r="I119" t="n">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="J119" t="n">
-        <v>134.375</v>
+        <v>148.25</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ABI3</t>
+          <t>GRN</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.1359723806139738</v>
+        <v>0.002121739605402238</v>
       </c>
       <c r="C120" t="n">
-        <v>0.2603550295857988</v>
+        <v>0.6643356643356644</v>
       </c>
       <c r="D120" t="n">
-        <v>0.03409090909090909</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="E120" t="n">
-        <v>0.002842978799234475</v>
+        <v>0.005439538998895024</v>
       </c>
       <c r="F120" t="n">
-        <v>201</v>
+        <v>69</v>
       </c>
       <c r="G120" t="n">
-        <v>194</v>
+        <v>101.5</v>
       </c>
       <c r="H120" t="n">
-        <v>129.5</v>
+        <v>101.5</v>
       </c>
       <c r="I120" t="n">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="J120" t="n">
-        <v>151.875</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>GPR56</t>
+          <t>BRI3</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>0.001054998574265787</v>
       </c>
       <c r="C121" t="n">
-        <v>0.2123039806996381</v>
+        <v>0.6229508196721312</v>
       </c>
       <c r="D121" t="n">
-        <v>0.01136363636363636</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="E121" t="n">
-        <v>0.00167445026685239</v>
+        <v>0.004658346649045272</v>
       </c>
       <c r="F121" t="n">
-        <v>48.5</v>
+        <v>12</v>
       </c>
       <c r="G121" t="n">
-        <v>109</v>
+        <v>27.5</v>
       </c>
       <c r="H121" t="n">
-        <v>64.5</v>
+        <v>27.5</v>
       </c>
       <c r="I121" t="n">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="J121" t="n">
-        <v>68.75</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>NCF2</t>
+          <t>HCST</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.004010297392016505</v>
+        <v>0.003348823790148264</v>
       </c>
       <c r="C122" t="n">
-        <v>0.2461538461538462</v>
+        <v>0.6934306569343066</v>
       </c>
       <c r="D122" t="n">
-        <v>0.09659090909090909</v>
+        <v>0.5578947368421052</v>
       </c>
       <c r="E122" t="n">
-        <v>0.005273771368753947</v>
+        <v>0.005145263899639812</v>
       </c>
       <c r="F122" t="n">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="G122" t="n">
-        <v>172.5</v>
+        <v>143.5</v>
       </c>
       <c r="H122" t="n">
-        <v>191.5</v>
+        <v>143.5</v>
       </c>
       <c r="I122" t="n">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="J122" t="n">
-        <v>149.5</v>
+        <v>124.75</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>MS4A1</t>
+          <t>TPT1</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>0.0009899960280989285</v>
       </c>
       <c r="C123" t="n">
-        <v>0.1870350690754516</v>
+        <v>0.6089743589743589</v>
       </c>
       <c r="D123" t="n">
-        <v>0.01704545454545454</v>
+        <v>0.3578947368421053</v>
       </c>
       <c r="E123" t="n">
-        <v>0.002053887208090494</v>
+        <v>0.003898060260276174</v>
       </c>
       <c r="F123" t="n">
-        <v>48.5</v>
+        <v>7</v>
       </c>
       <c r="G123" t="n">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="H123" t="n">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="I123" t="n">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="J123" t="n">
-        <v>67.875</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>APOBEC3A</t>
+          <t>S100A9</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.009809531826100844</v>
+        <v>0.002934620093654769</v>
       </c>
       <c r="C124" t="n">
-        <v>0.2434301521438451</v>
+        <v>0.6859205776173285</v>
       </c>
       <c r="D124" t="n">
-        <v>0.06818181818181818</v>
+        <v>0.5421052631578948</v>
       </c>
       <c r="E124" t="n">
-        <v>0.004644405032879394</v>
+        <v>0.00561154988517215</v>
       </c>
       <c r="F124" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G124" t="n">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="H124" t="n">
-        <v>171.5</v>
+        <v>134</v>
       </c>
       <c r="I124" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J124" t="n">
-        <v>146.625</v>
+        <v>128.75</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>AIF1</t>
+          <t>BLVRB</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.01193932875089269</v>
+        <v>0.001648242506227316</v>
       </c>
       <c r="C125" t="n">
-        <v>0.23342175066313</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="D125" t="n">
-        <v>0.05681818181818182</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="E125" t="n">
-        <v>0.004019366145090885</v>
+        <v>0.00516052592975671</v>
       </c>
       <c r="F125" t="n">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="G125" t="n">
-        <v>146</v>
+        <v>65.5</v>
       </c>
       <c r="H125" t="n">
-        <v>159.5</v>
+        <v>65.5</v>
       </c>
       <c r="I125" t="n">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="J125" t="n">
-        <v>137.125</v>
+        <v>62</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>KLRB1</t>
+          <t>CD3D</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.01506493506493503</v>
+        <v>0.001235252836871485</v>
       </c>
       <c r="C126" t="n">
-        <v>0.1490262489415749</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="D126" t="n">
-        <v>0.01136363636363636</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="E126" t="n">
-        <v>0.003223333725377656</v>
+        <v>0.003624772025939214</v>
       </c>
       <c r="F126" t="n">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="G126" t="n">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="H126" t="n">
-        <v>64.5</v>
+        <v>18</v>
       </c>
       <c r="I126" t="n">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="J126" t="n">
-        <v>88.625</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>NPC2</t>
+          <t>IL32</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.01307926939152882</v>
+        <v>0.002579733681671937</v>
       </c>
       <c r="C127" t="n">
-        <v>0.2427586206896552</v>
+        <v>0.6597222222222222</v>
       </c>
       <c r="D127" t="n">
-        <v>0.07954545454545454</v>
+        <v>0.4842105263157895</v>
       </c>
       <c r="E127" t="n">
-        <v>0.004251644411154613</v>
+        <v>0.004729917770004725</v>
       </c>
       <c r="F127" t="n">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="G127" t="n">
-        <v>163.5</v>
+        <v>97</v>
       </c>
       <c r="H127" t="n">
-        <v>181.5</v>
+        <v>97</v>
       </c>
       <c r="I127" t="n">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="J127" t="n">
-        <v>149.5</v>
+        <v>86</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>GNLY</t>
+          <t>PPAPDC1B</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1.082251082251082e-05</v>
+        <v>0.002129648141272267</v>
       </c>
       <c r="C128" t="n">
-        <v>0.2022988505747126</v>
+        <v>0.6209150326797386</v>
       </c>
       <c r="D128" t="n">
-        <v>0.01704545454545454</v>
+        <v>0.3894736842105263</v>
       </c>
       <c r="E128" t="n">
-        <v>0.002102075531038201</v>
+        <v>0.004184807268105836</v>
       </c>
       <c r="F128" t="n">
-        <v>67.5</v>
+        <v>71</v>
       </c>
       <c r="G128" t="n">
-        <v>94</v>
+        <v>25.5</v>
       </c>
       <c r="H128" t="n">
-        <v>83</v>
+        <v>25.5</v>
       </c>
       <c r="I128" t="n">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="J128" t="n">
-        <v>77.375</v>
+        <v>35.25</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>RP11-367G6.3</t>
+          <t>RPLP0</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>0.001643849618810608</v>
       </c>
       <c r="C129" t="n">
-        <v>0.1970884658454647</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D129" t="n">
-        <v>0.005681818181818182</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="E129" t="n">
-        <v>0.001619781735361935</v>
+        <v>0.004707226097049705</v>
       </c>
       <c r="F129" t="n">
-        <v>48.5</v>
+        <v>38</v>
       </c>
       <c r="G129" t="n">
-        <v>89</v>
+        <v>40.5</v>
       </c>
       <c r="H129" t="n">
-        <v>42</v>
+        <v>40.5</v>
       </c>
       <c r="I129" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J129" t="n">
-        <v>57.375</v>
+        <v>40.75</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>S1PR5</t>
+          <t>HOPX</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.01049082998829357</v>
+        <v>0.002889612234773343</v>
       </c>
       <c r="C130" t="n">
-        <v>0.2205513784461153</v>
+        <v>0.6737588652482269</v>
       </c>
       <c r="D130" t="n">
-        <v>0.02272727272727273</v>
+        <v>0.5157894736842105</v>
       </c>
       <c r="E130" t="n">
-        <v>0.002629055201390239</v>
+        <v>0.005166114814757308</v>
       </c>
       <c r="F130" t="n">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G130" t="n">
-        <v>128</v>
+        <v>116.5</v>
       </c>
       <c r="H130" t="n">
-        <v>100</v>
+        <v>116.5</v>
       </c>
       <c r="I130" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J130" t="n">
-        <v>107.25</v>
+        <v>108.25</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>PLA2G12A</t>
+          <t>APOBEC3G</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>6.70995670995671e-05</v>
+        <v>0.004072384948056464</v>
       </c>
       <c r="C131" t="n">
-        <v>0.1067313523347483</v>
+        <v>0.7196969696969697</v>
       </c>
       <c r="D131" t="n">
-        <v>0.01704545454545454</v>
+        <v>0.6105263157894737</v>
       </c>
       <c r="E131" t="n">
-        <v>0.001803457741022567</v>
+        <v>0.005910536368597911</v>
       </c>
       <c r="F131" t="n">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="G131" t="n">
-        <v>35</v>
+        <v>172.5</v>
       </c>
       <c r="H131" t="n">
-        <v>83</v>
+        <v>172.5</v>
       </c>
       <c r="I131" t="n">
-        <v>59</v>
+        <v>158</v>
       </c>
       <c r="J131" t="n">
-        <v>61.75</v>
+        <v>166.5</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>TTC38</t>
+          <t>LGALS3</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.01435669405907378</v>
+        <v>0.002666986818121006</v>
       </c>
       <c r="C132" t="n">
-        <v>0.218091697645601</v>
+        <v>0.657439446366782</v>
       </c>
       <c r="D132" t="n">
-        <v>0.02272727272727273</v>
+        <v>0.4789473684210526</v>
       </c>
       <c r="E132" t="n">
-        <v>0.00349619529121297</v>
+        <v>0.004796743991789462</v>
       </c>
       <c r="F132" t="n">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="G132" t="n">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="H132" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="I132" t="n">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="J132" t="n">
-        <v>116.25</v>
+        <v>87.25</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>C5orf56</t>
+          <t>SMIM14</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.0008511782664460481</v>
+        <v>0.00184972350322072</v>
       </c>
       <c r="C133" t="n">
-        <v>0.1844863731656184</v>
+        <v>0.6109324758842444</v>
       </c>
       <c r="D133" t="n">
-        <v>0.01136363636363636</v>
+        <v>0.3631578947368421</v>
       </c>
       <c r="E133" t="n">
-        <v>0.002131683375888776</v>
+        <v>0.003838792746845203</v>
       </c>
       <c r="F133" t="n">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="G133" t="n">
-        <v>74</v>
+        <v>15.5</v>
       </c>
       <c r="H133" t="n">
-        <v>64.5</v>
+        <v>15.5</v>
       </c>
       <c r="I133" t="n">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="J133" t="n">
-        <v>70.375</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>CEBPB</t>
+          <t>S100A4</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.01792977802897033</v>
+        <v>0.003474632054540327</v>
       </c>
       <c r="C134" t="n">
-        <v>0.2146341463414634</v>
+        <v>0.6859205776173285</v>
       </c>
       <c r="D134" t="n">
-        <v>0.02840909090909091</v>
+        <v>0.5421052631578948</v>
       </c>
       <c r="E134" t="n">
-        <v>0.002922664439804719</v>
+        <v>0.00506191357983997</v>
       </c>
       <c r="F134" t="n">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G134" t="n">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="H134" t="n">
-        <v>117.5</v>
+        <v>134</v>
       </c>
       <c r="I134" t="n">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="J134" t="n">
-        <v>117.125</v>
+        <v>119.5</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>GPX1</t>
+          <t>PYCARD</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>0.004714294503436578</v>
       </c>
       <c r="C135" t="n">
-        <v>0.2205513784461153</v>
+        <v>0.7480314960629921</v>
       </c>
       <c r="D135" t="n">
-        <v>0.01136363636363636</v>
+        <v>0.6631578947368421</v>
       </c>
       <c r="E135" t="n">
-        <v>0.001383791951419326</v>
+        <v>0.006423164897461317</v>
       </c>
       <c r="F135" t="n">
-        <v>48.5</v>
+        <v>182</v>
       </c>
       <c r="G135" t="n">
-        <v>128</v>
+        <v>185.5</v>
       </c>
       <c r="H135" t="n">
-        <v>64.5</v>
+        <v>185.5</v>
       </c>
       <c r="I135" t="n">
-        <v>43</v>
+        <v>184</v>
       </c>
       <c r="J135" t="n">
-        <v>71</v>
+        <v>184.25</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>RGS18</t>
+          <t>RPS28</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>0.002926032172190716</v>
       </c>
       <c r="C136" t="n">
-        <v>0.1790437436419125</v>
+        <v>0.6620209059233449</v>
       </c>
       <c r="D136" t="n">
-        <v>0.005681818181818182</v>
+        <v>0.4894736842105263</v>
       </c>
       <c r="E136" t="n">
-        <v>0.001272543502379479</v>
+        <v>0.004813422633770637</v>
       </c>
       <c r="F136" t="n">
-        <v>48.5</v>
+        <v>121</v>
       </c>
       <c r="G136" t="n">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="H136" t="n">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="I136" t="n">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="J136" t="n">
-        <v>48.625</v>
+        <v>94</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>TNFRSF1B</t>
+          <t>S100A11</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.0009637027841296437</v>
+        <v>0.00587592466835539</v>
       </c>
       <c r="C137" t="n">
-        <v>0.1962095875139353</v>
+        <v>0.7630522088353414</v>
       </c>
       <c r="D137" t="n">
-        <v>0.01136363636363636</v>
+        <v>0.6894736842105263</v>
       </c>
       <c r="E137" t="n">
-        <v>0.002230754800089927</v>
+        <v>0.006583672090857181</v>
       </c>
       <c r="F137" t="n">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="G137" t="n">
-        <v>88</v>
+        <v>190</v>
       </c>
       <c r="H137" t="n">
-        <v>64.5</v>
+        <v>190</v>
       </c>
       <c r="I137" t="n">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="J137" t="n">
-        <v>75.125</v>
+        <v>189.5</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>CTSS</t>
+          <t>TYMP</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>7.219598583234948e-05</v>
+        <v>0.001766322532077507</v>
       </c>
       <c r="C138" t="n">
-        <v>0.2213836477987421</v>
+        <v>0.6462585034013606</v>
       </c>
       <c r="D138" t="n">
-        <v>0.01704545454545454</v>
+        <v>0.4526315789473684</v>
       </c>
       <c r="E138" t="n">
-        <v>0.001680860071227974</v>
+        <v>0.005097914880207258</v>
       </c>
       <c r="F138" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="G138" t="n">
-        <v>130.5</v>
+        <v>70.5</v>
       </c>
       <c r="H138" t="n">
-        <v>83</v>
+        <v>70.5</v>
       </c>
       <c r="I138" t="n">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="J138" t="n">
-        <v>84.625</v>
+        <v>66.25</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>CD247</t>
+          <t>CHST12</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>0.004264093858303117</v>
       </c>
       <c r="C139" t="n">
-        <v>0.1792260692464358</v>
+        <v>0.7251908396946565</v>
       </c>
       <c r="D139" t="n">
-        <v>0.005681818181818182</v>
+        <v>0.6210526315789473</v>
       </c>
       <c r="E139" t="n">
-        <v>0.001707953911977384</v>
+        <v>0.00608648059153065</v>
       </c>
       <c r="F139" t="n">
-        <v>48.5</v>
+        <v>168</v>
       </c>
       <c r="G139" t="n">
-        <v>68</v>
+        <v>177</v>
       </c>
       <c r="H139" t="n">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="I139" t="n">
-        <v>57</v>
+        <v>169</v>
       </c>
       <c r="J139" t="n">
-        <v>53.875</v>
+        <v>172.75</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>SNX29P2</t>
+          <t>MALAT1</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.01090656753217639</v>
+        <v>0.003442439118764392</v>
       </c>
       <c r="C140" t="n">
-        <v>0.2170160295930949</v>
+        <v>0.6834532374100719</v>
       </c>
       <c r="D140" t="n">
-        <v>0.03409090909090909</v>
+        <v>0.5368421052631579</v>
       </c>
       <c r="E140" t="n">
-        <v>0.003116311983008852</v>
+        <v>0.005186099335656905</v>
       </c>
       <c r="F140" t="n">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="G140" t="n">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="H140" t="n">
-        <v>129.5</v>
+        <v>129</v>
       </c>
       <c r="I140" t="n">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="J140" t="n">
-        <v>117.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>HLA-DMA</t>
+          <t>ISG20</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.003283053413017634</v>
+        <v>0.004042030071337277</v>
       </c>
       <c r="C141" t="n">
-        <v>0.2213836477987421</v>
+        <v>0.7089552238805971</v>
       </c>
       <c r="D141" t="n">
-        <v>0.03977272727272727</v>
+        <v>0.5894736842105263</v>
       </c>
       <c r="E141" t="n">
-        <v>0.00291283935775723</v>
+        <v>0.005656472310838627</v>
       </c>
       <c r="F141" t="n">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="G141" t="n">
-        <v>130.5</v>
+        <v>159.5</v>
       </c>
       <c r="H141" t="n">
-        <v>139</v>
+        <v>159.5</v>
       </c>
       <c r="I141" t="n">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="J141" t="n">
-        <v>112.375</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>CD79B</t>
+          <t>NPC2</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.0734207169689822</v>
+        <v>0.003598593185501685</v>
       </c>
       <c r="C142" t="n">
-        <v>0.2337317397078353</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="D142" t="n">
-        <v>0.02272727272727273</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="E142" t="n">
-        <v>0.002624103480449184</v>
+        <v>0.00604408487816722</v>
       </c>
       <c r="F142" t="n">
-        <v>194</v>
+        <v>146</v>
       </c>
       <c r="G142" t="n">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="H142" t="n">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="I142" t="n">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="J142" t="n">
-        <v>129.5</v>
+        <v>162.25</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>CD37</t>
+          <t>LDHB</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.0007346824781917863</v>
+        <v>0.002627849835427094</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2037037037037037</v>
+        <v>0.6529209621993127</v>
       </c>
       <c r="D143" t="n">
-        <v>0.01136363636363636</v>
+        <v>0.468421052631579</v>
       </c>
       <c r="E143" t="n">
-        <v>0.001399572996570404</v>
+        <v>0.004756920705895841</v>
       </c>
       <c r="F143" t="n">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="G143" t="n">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="H143" t="n">
-        <v>64.5</v>
+        <v>83</v>
       </c>
       <c r="I143" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J143" t="n">
-        <v>70.125</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SMCO4</t>
+          <t>LST1</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.007711531174481426</v>
+        <v>0.002727029753653614</v>
       </c>
       <c r="C144" t="n">
-        <v>0.2444444444444444</v>
+        <v>0.6690140845070423</v>
       </c>
       <c r="D144" t="n">
-        <v>0.05681818181818182</v>
+        <v>0.5052631578947369</v>
       </c>
       <c r="E144" t="n">
-        <v>0.003047043190197748</v>
+        <v>0.00533499353222016</v>
       </c>
       <c r="F144" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G144" t="n">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="H144" t="n">
-        <v>159.5</v>
+        <v>107</v>
       </c>
       <c r="I144" t="n">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="J144" t="n">
-        <v>134.875</v>
+        <v>107.25</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>MFSD1</t>
+          <t>ARPC5L</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.02572715752125303</v>
+        <v>0.003832145271676828</v>
       </c>
       <c r="C145" t="n">
-        <v>0.1854583772391992</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="D145" t="n">
-        <v>0.01136363636363636</v>
+        <v>0.5526315789473684</v>
       </c>
       <c r="E145" t="n">
-        <v>0.00169136081545744</v>
+        <v>0.005416136348071811</v>
       </c>
       <c r="F145" t="n">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G145" t="n">
-        <v>76</v>
+        <v>140.5</v>
       </c>
       <c r="H145" t="n">
-        <v>64.5</v>
+        <v>140.5</v>
       </c>
       <c r="I145" t="n">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="J145" t="n">
-        <v>88.375</v>
+        <v>135.5</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>GSTP1</t>
+          <t>C12orf75</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.02263096865540475</v>
+        <v>0.00436669556036474</v>
       </c>
       <c r="C146" t="n">
-        <v>0.1984216459977452</v>
+        <v>0.7224334600760456</v>
       </c>
       <c r="D146" t="n">
-        <v>0.01704545454545454</v>
+        <v>0.6157894736842106</v>
       </c>
       <c r="E146" t="n">
-        <v>0.002974070070092233</v>
+        <v>0.006075927655358256</v>
       </c>
       <c r="F146" t="n">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="G146" t="n">
-        <v>90</v>
+        <v>174.5</v>
       </c>
       <c r="H146" t="n">
-        <v>83</v>
+        <v>174.5</v>
       </c>
       <c r="I146" t="n">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="J146" t="n">
-        <v>105.25</v>
+        <v>172</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>SAMD3</t>
+          <t>GABARAP</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.0375148704283795</v>
+        <v>0.002573096891322815</v>
       </c>
       <c r="C147" t="n">
-        <v>0.2186335403726708</v>
+        <v>0.6761565836298933</v>
       </c>
       <c r="D147" t="n">
-        <v>0.02272727272727273</v>
+        <v>0.5210526315789473</v>
       </c>
       <c r="E147" t="n">
-        <v>0.002522430736246821</v>
+        <v>0.005191305072024515</v>
       </c>
       <c r="F147" t="n">
-        <v>174</v>
+        <v>100</v>
       </c>
       <c r="G147" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H147" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="I147" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="J147" t="n">
-        <v>117.75</v>
+        <v>105.75</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>PHACTR1</t>
+          <t>GPX1</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.004486379925380312</v>
+        <v>0.004454540069568688</v>
       </c>
       <c r="C148" t="n">
-        <v>0.2156862745098039</v>
+        <v>0.7063197026022305</v>
       </c>
       <c r="D148" t="n">
-        <v>0.02840909090909091</v>
+        <v>0.5842105263157895</v>
       </c>
       <c r="E148" t="n">
-        <v>0.002232752973316157</v>
+        <v>0.005734093340328013</v>
       </c>
       <c r="F148" t="n">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="G148" t="n">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="H148" t="n">
-        <v>117.5</v>
+        <v>156</v>
       </c>
       <c r="I148" t="n">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="J148" t="n">
-        <v>101.375</v>
+        <v>157</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>HLA-DQB1</t>
+          <t>RPL31</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.0002805987928681026</v>
+        <v>0.001514195531466947</v>
       </c>
       <c r="C149" t="n">
-        <v>0.1925601750547046</v>
+        <v>0.6188925081433225</v>
       </c>
       <c r="D149" t="n">
-        <v>0.01136363636363636</v>
+        <v>0.3842105263157894</v>
       </c>
       <c r="E149" t="n">
-        <v>0.00195056928144478</v>
+        <v>0.004051008525020348</v>
       </c>
       <c r="F149" t="n">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="G149" t="n">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="H149" t="n">
-        <v>64.5</v>
+        <v>24</v>
       </c>
       <c r="I149" t="n">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="J149" t="n">
-        <v>70.625</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>SPARC</t>
+          <t>RPS10</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>0.00232522120126033</v>
       </c>
       <c r="C150" t="n">
-        <v>0.1756487025948104</v>
+        <v>0.6375838926174496</v>
       </c>
       <c r="D150" t="n">
-        <v>0.005681818181818182</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="E150" t="n">
-        <v>0.001342039930026197</v>
+        <v>0.004338918569857688</v>
       </c>
       <c r="F150" t="n">
-        <v>48.5</v>
+        <v>86</v>
       </c>
       <c r="G150" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H150" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I150" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="J150" t="n">
-        <v>48.875</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>CCL3</t>
+          <t>RPL14</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.001109722309781159</v>
+        <v>0.001795484253847256</v>
       </c>
       <c r="C151" t="n">
-        <v>0.2328042328042328</v>
+        <v>0.6291390728476821</v>
       </c>
       <c r="D151" t="n">
-        <v>0.01136363636363636</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="E151" t="n">
-        <v>0.001367289169718825</v>
+        <v>0.00420536454422212</v>
       </c>
       <c r="F151" t="n">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="G151" t="n">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="H151" t="n">
-        <v>64.5</v>
+        <v>34</v>
       </c>
       <c r="I151" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="J151" t="n">
-        <v>82.375</v>
+        <v>35</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>MPP1</t>
+          <t>CXCR4</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.01561815388588614</v>
+        <v>0.001351857876761352</v>
       </c>
       <c r="C152" t="n">
-        <v>0.2191780821917808</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="D152" t="n">
-        <v>0.03409090909090909</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="E152" t="n">
-        <v>0.003132012639525633</v>
+        <v>0.003776960530356518</v>
       </c>
       <c r="F152" t="n">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="G152" t="n">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="H152" t="n">
-        <v>129.5</v>
+        <v>18</v>
       </c>
       <c r="I152" t="n">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="J152" t="n">
-        <v>123.625</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>LGALS3</t>
+          <t>CD3E</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.001224217401235922</v>
+        <v>0.002528473331511995</v>
       </c>
       <c r="C153" t="n">
-        <v>0.2288686605981795</v>
+        <v>0.6690140845070423</v>
       </c>
       <c r="D153" t="n">
-        <v>0.02840909090909091</v>
+        <v>0.5052631578947369</v>
       </c>
       <c r="E153" t="n">
-        <v>0.00208915061491261</v>
+        <v>0.004842402609671433</v>
       </c>
       <c r="F153" t="n">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="G153" t="n">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="H153" t="n">
-        <v>117.5</v>
+        <v>107</v>
       </c>
       <c r="I153" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J153" t="n">
-        <v>100.625</v>
+        <v>93</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>LITAF</t>
+          <t>CCR7</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.06834719326467614</v>
+        <v>0.00163899033442807</v>
       </c>
       <c r="C154" t="n">
-        <v>0.2233502538071066</v>
+        <v>0.6209150326797386</v>
       </c>
       <c r="D154" t="n">
-        <v>0.02840909090909091</v>
+        <v>0.3894736842105263</v>
       </c>
       <c r="E154" t="n">
-        <v>0.002871885752502718</v>
+        <v>0.003997899387677783</v>
       </c>
       <c r="F154" t="n">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="G154" t="n">
-        <v>134.5</v>
+        <v>25.5</v>
       </c>
       <c r="H154" t="n">
-        <v>117.5</v>
+        <v>25.5</v>
       </c>
       <c r="I154" t="n">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="J154" t="n">
-        <v>132</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>SPIB</t>
+          <t>NEAT1</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.007343569617896575</v>
+        <v>0.004098317374421926</v>
       </c>
       <c r="C155" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="D155" t="n">
-        <v>0.01704545454545454</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="E155" t="n">
-        <v>0.001602843510849076</v>
+        <v>0.006068828205459446</v>
       </c>
       <c r="F155" t="n">
-        <v>111</v>
+        <v>165</v>
       </c>
       <c r="G155" t="n">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="H155" t="n">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="I155" t="n">
-        <v>48</v>
+        <v>167</v>
       </c>
       <c r="J155" t="n">
-        <v>98.75</v>
+        <v>173.5</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>SPON2</t>
+          <t>FTH1</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>0.002678677305518785</v>
       </c>
       <c r="C156" t="n">
-        <v>0.1902702702702703</v>
+        <v>0.6690140845070423</v>
       </c>
       <c r="D156" t="n">
-        <v>0.005681818181818182</v>
+        <v>0.5052631578947369</v>
       </c>
       <c r="E156" t="n">
-        <v>0.001147501177539891</v>
+        <v>0.004785424174116807</v>
       </c>
       <c r="F156" t="n">
-        <v>48.5</v>
+        <v>111</v>
       </c>
       <c r="G156" t="n">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="H156" t="n">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="I156" t="n">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="J156" t="n">
-        <v>50.375</v>
+        <v>94.75</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>BLVRA</t>
+          <t>FCRL6</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.000827170812955332</v>
+        <v>0.003431657360339327</v>
       </c>
       <c r="C157" t="n">
-        <v>0.2068155111633372</v>
+        <v>0.6959706959706959</v>
       </c>
       <c r="D157" t="n">
-        <v>0.01704545454545454</v>
+        <v>0.5631578947368421</v>
       </c>
       <c r="E157" t="n">
-        <v>0.001870761468567033</v>
+        <v>0.005599053451768529</v>
       </c>
       <c r="F157" t="n">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="G157" t="n">
-        <v>103</v>
+        <v>145.5</v>
       </c>
       <c r="H157" t="n">
-        <v>83</v>
+        <v>145.5</v>
       </c>
       <c r="I157" t="n">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="J157" t="n">
-        <v>80.5</v>
+        <v>138.25</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>TNFSF13B</t>
+          <t>APMAP</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.006817481803027933</v>
+        <v>0.003738923699843396</v>
       </c>
       <c r="C158" t="n">
-        <v>0.2468443197755961</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="D158" t="n">
-        <v>0.07954545454545454</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="E158" t="n">
-        <v>0.003796604442480114</v>
+        <v>0.005637606459087837</v>
       </c>
       <c r="F158" t="n">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="G158" t="n">
-        <v>175.5</v>
+        <v>153</v>
       </c>
       <c r="H158" t="n">
-        <v>181.5</v>
+        <v>153</v>
       </c>
       <c r="I158" t="n">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="J158" t="n">
-        <v>144</v>
+        <v>146.25</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>SDPR</t>
+          <t>CD99</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>0.003940529899966827</v>
       </c>
       <c r="C159" t="n">
-        <v>0.171875</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D159" t="n">
-        <v>0.01136363636363636</v>
+        <v>0.6</v>
       </c>
       <c r="E159" t="n">
-        <v>0.001362886480950425</v>
+        <v>0.005766982921585694</v>
       </c>
       <c r="F159" t="n">
-        <v>48.5</v>
+        <v>159</v>
       </c>
       <c r="G159" t="n">
-        <v>63</v>
+        <v>164.5</v>
       </c>
       <c r="H159" t="n">
-        <v>64.5</v>
+        <v>164.5</v>
       </c>
       <c r="I159" t="n">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="J159" t="n">
-        <v>54.25</v>
+        <v>159</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>PLEKHF1</t>
+          <t>HLA-DMA</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>0.002961629298830809</v>
       </c>
       <c r="C160" t="n">
-        <v>0.1626617375231054</v>
+        <v>0.6884057971014492</v>
       </c>
       <c r="D160" t="n">
-        <v>0.005681818181818182</v>
+        <v>0.5473684210526316</v>
       </c>
       <c r="E160" t="n">
-        <v>0.001174371055464881</v>
+        <v>0.005690186108262871</v>
       </c>
       <c r="F160" t="n">
-        <v>48.5</v>
+        <v>125</v>
       </c>
       <c r="G160" t="n">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="H160" t="n">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="I160" t="n">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="J160" t="n">
-        <v>44.875</v>
+        <v>135.25</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>SAT1</t>
+          <t>GZMM</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>0.003961986214903715</v>
       </c>
       <c r="C161" t="n">
-        <v>0.215422276621787</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="D161" t="n">
-        <v>0.01704545454545454</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="E161" t="n">
-        <v>0.001546994259572656</v>
+        <v>0.00590597522042764</v>
       </c>
       <c r="F161" t="n">
-        <v>48.5</v>
+        <v>161</v>
       </c>
       <c r="G161" t="n">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="H161" t="n">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c r="I161" t="n">
-        <v>47</v>
+        <v>157</v>
       </c>
       <c r="J161" t="n">
-        <v>73.375</v>
+        <v>164</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>SWAP70</t>
+          <t>MYL12A</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.0337012987012987</v>
+        <v>0.002225261810044731</v>
       </c>
       <c r="C162" t="n">
-        <v>0.1990950226244344</v>
+        <v>0.6462585034013606</v>
       </c>
       <c r="D162" t="n">
-        <v>0.01136363636363636</v>
+        <v>0.4526315789473684</v>
       </c>
       <c r="E162" t="n">
-        <v>0.002959606723891016</v>
+        <v>0.00429128193598884</v>
       </c>
       <c r="F162" t="n">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="G162" t="n">
-        <v>91</v>
+        <v>70.5</v>
       </c>
       <c r="H162" t="n">
-        <v>64.5</v>
+        <v>70.5</v>
       </c>
       <c r="I162" t="n">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="J162" t="n">
-        <v>104.125</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>HOPX</t>
+          <t>LAG3</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.1846753246753247</v>
+        <v>0.003389217034073345</v>
       </c>
       <c r="C163" t="n">
-        <v>0.2</v>
+        <v>0.6810035842293907</v>
       </c>
       <c r="D163" t="n">
-        <v>0.01136363636363636</v>
+        <v>0.531578947368421</v>
       </c>
       <c r="E163" t="n">
-        <v>0.0022467902381335</v>
+        <v>0.005074212064433564</v>
       </c>
       <c r="F163" t="n">
-        <v>206</v>
+        <v>137</v>
       </c>
       <c r="G163" t="n">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="H163" t="n">
-        <v>64.5</v>
+        <v>124</v>
       </c>
       <c r="I163" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J163" t="n">
-        <v>108.625</v>
+        <v>113.75</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>LINC00936</t>
+          <t>RPS13</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.005808434883545451</v>
+        <v>0.002193149885159602</v>
       </c>
       <c r="C164" t="n">
-        <v>0.180327868852459</v>
+        <v>0.6418918918918919</v>
       </c>
       <c r="D164" t="n">
-        <v>0.01136363636363636</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="E164" t="n">
-        <v>0.001625505012357041</v>
+        <v>0.004429658638334418</v>
       </c>
       <c r="F164" t="n">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="G164" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H164" t="n">
-        <v>64.5</v>
+        <v>60</v>
       </c>
       <c r="I164" t="n">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="J164" t="n">
-        <v>71.875</v>
+        <v>55.75</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>SNCA</t>
+          <t>S100A6</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>0.002370697691127036</v>
       </c>
       <c r="C165" t="n">
-        <v>0.21256038647343</v>
+        <v>0.6312292358803987</v>
       </c>
       <c r="D165" t="n">
-        <v>0.01136363636363636</v>
+        <v>0.4157894736842105</v>
       </c>
       <c r="E165" t="n">
-        <v>0.001328620888833634</v>
+        <v>0.004024363957280269</v>
       </c>
       <c r="F165" t="n">
-        <v>48.5</v>
+        <v>87</v>
       </c>
       <c r="G165" t="n">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="H165" t="n">
-        <v>64.5</v>
+        <v>37</v>
       </c>
       <c r="I165" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="J165" t="n">
-        <v>65.5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>TMEM40</t>
+          <t>NPM1</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>0.002307173256237467</v>
       </c>
       <c r="C166" t="n">
-        <v>0.191512513601741</v>
+        <v>0.6506849315068494</v>
       </c>
       <c r="D166" t="n">
-        <v>0.005681818181818182</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="E166" t="n">
-        <v>0.001049585082828368</v>
+        <v>0.004457716028431068</v>
       </c>
       <c r="F166" t="n">
-        <v>48.5</v>
+        <v>85</v>
       </c>
       <c r="G166" t="n">
-        <v>79</v>
+        <v>78.5</v>
       </c>
       <c r="H166" t="n">
-        <v>42</v>
+        <v>78.5</v>
       </c>
       <c r="I166" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J166" t="n">
-        <v>50.125</v>
+        <v>67.25</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>PRR5</t>
+          <t>RPS3A</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>0.001278465772709679</v>
       </c>
       <c r="C167" t="n">
-        <v>0.1430894308943089</v>
+        <v>0.5993690851735016</v>
       </c>
       <c r="D167" t="n">
-        <v>0.005681818181818182</v>
+        <v>0.331578947368421</v>
       </c>
       <c r="E167" t="n">
-        <v>0.00288205032615591</v>
+        <v>0.003515467602345733</v>
       </c>
       <c r="F167" t="n">
-        <v>48.5</v>
+        <v>18</v>
       </c>
       <c r="G167" t="n">
-        <v>47.5</v>
+        <v>10.5</v>
       </c>
       <c r="H167" t="n">
-        <v>42</v>
+        <v>10.5</v>
       </c>
       <c r="I167" t="n">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="J167" t="n">
-        <v>55.75</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>TSC22D1</t>
+          <t>RPS29</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.02266233766233766</v>
+        <v>0.0008813431803752216</v>
       </c>
       <c r="C168" t="n">
-        <v>0.166824644549763</v>
+        <v>0.5900621118012422</v>
       </c>
       <c r="D168" t="n">
-        <v>0.01704545454545454</v>
+        <v>0.3052631578947368</v>
       </c>
       <c r="E168" t="n">
-        <v>0.006780231219901299</v>
+        <v>0.003254847062725815</v>
       </c>
       <c r="F168" t="n">
-        <v>155</v>
+        <v>5</v>
       </c>
       <c r="G168" t="n">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="H168" t="n">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="I168" t="n">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="J168" t="n">
-        <v>113</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>CD160</t>
+          <t>KLRG1</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>0.004240966046477857</v>
       </c>
       <c r="C169" t="n">
-        <v>0.1430894308943089</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D169" t="n">
-        <v>0.005681818181818182</v>
+        <v>0.6</v>
       </c>
       <c r="E169" t="n">
-        <v>0.002775575475059154</v>
+        <v>0.005678910762314533</v>
       </c>
       <c r="F169" t="n">
-        <v>48.5</v>
+        <v>167</v>
       </c>
       <c r="G169" t="n">
-        <v>47.5</v>
+        <v>164.5</v>
       </c>
       <c r="H169" t="n">
-        <v>42</v>
+        <v>164.5</v>
       </c>
       <c r="I169" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="J169" t="n">
-        <v>54.5</v>
+        <v>159</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>NCOA4</t>
+          <t>AP1S2</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>0.002653123101427402</v>
       </c>
       <c r="C170" t="n">
-        <v>0.140462889066241</v>
+        <v>0.6737588652482269</v>
       </c>
       <c r="D170" t="n">
-        <v>0.005681818181818182</v>
+        <v>0.5157894736842105</v>
       </c>
       <c r="E170" t="n">
-        <v>0.001210597619956708</v>
+        <v>0.005196273890314657</v>
       </c>
       <c r="F170" t="n">
-        <v>48.5</v>
+        <v>107</v>
       </c>
       <c r="G170" t="n">
-        <v>45</v>
+        <v>116.5</v>
       </c>
       <c r="H170" t="n">
-        <v>42</v>
+        <v>116.5</v>
       </c>
       <c r="I170" t="n">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="J170" t="n">
-        <v>42.625</v>
+        <v>106.25</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>MARCH2</t>
+          <t>SNX2</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>0.00246789761076123</v>
       </c>
       <c r="C171" t="n">
-        <v>0.179959100204499</v>
+        <v>0.6484641638225256</v>
       </c>
       <c r="D171" t="n">
-        <v>0.005681818181818182</v>
+        <v>0.4578947368421052</v>
       </c>
       <c r="E171" t="n">
-        <v>0.00121862902029383</v>
+        <v>0.004699763821743508</v>
       </c>
       <c r="F171" t="n">
-        <v>48.5</v>
+        <v>93</v>
       </c>
       <c r="G171" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H171" t="n">
+        <v>75</v>
+      </c>
+      <c r="I171" t="n">
         <v>42</v>
       </c>
-      <c r="I171" t="n">
-        <v>36</v>
-      </c>
       <c r="J171" t="n">
-        <v>48.875</v>
+        <v>71.25</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>TUBB1</t>
+          <t>HLA-E</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>0.001655172824683649</v>
       </c>
       <c r="C172" t="n">
-        <v>0.117255163224517</v>
+        <v>0.625</v>
       </c>
       <c r="D172" t="n">
-        <v>0.005681818181818182</v>
+        <v>0.4</v>
       </c>
       <c r="E172" t="n">
-        <v>0.001607857491259411</v>
+        <v>0.00388688959970856</v>
       </c>
       <c r="F172" t="n">
-        <v>48.5</v>
+        <v>41</v>
       </c>
       <c r="G172" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H172" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I172" t="n">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="J172" t="n">
-        <v>43.875</v>
+        <v>28.25</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>C9orf142</t>
+          <t>SAMD3</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>0.003015015203605718</v>
       </c>
       <c r="C173" t="n">
-        <v>0.1846799580272823</v>
+        <v>0.6834532374100719</v>
       </c>
       <c r="D173" t="n">
-        <v>0.005681818181818182</v>
+        <v>0.5368421052631579</v>
       </c>
       <c r="E173" t="n">
-        <v>0.001103738016924358</v>
+        <v>0.00516189720073169</v>
       </c>
       <c r="F173" t="n">
-        <v>48.5</v>
+        <v>127</v>
       </c>
       <c r="G173" t="n">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="H173" t="n">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="I173" t="n">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="J173" t="n">
-        <v>49.375</v>
+        <v>116</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>LDLRAP1</t>
+          <t>PSAP</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>0.005600366327113254</v>
       </c>
       <c r="C174" t="n">
-        <v>0.1303703703703704</v>
+        <v>0.7569721115537849</v>
       </c>
       <c r="D174" t="n">
-        <v>0.005681818181818182</v>
+        <v>0.6789473684210526</v>
       </c>
       <c r="E174" t="n">
-        <v>0.001669903631669342</v>
+        <v>0.006487327892972962</v>
       </c>
       <c r="F174" t="n">
-        <v>48.5</v>
+        <v>189</v>
       </c>
       <c r="G174" t="n">
-        <v>42</v>
+        <v>187.5</v>
       </c>
       <c r="H174" t="n">
-        <v>42</v>
+        <v>187.5</v>
       </c>
       <c r="I174" t="n">
-        <v>52</v>
+        <v>186</v>
       </c>
       <c r="J174" t="n">
-        <v>46.125</v>
+        <v>187.5</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>LYAR</t>
+          <t>LCK</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>0.00455279837690529</v>
       </c>
       <c r="C175" t="n">
-        <v>0.1705426356589147</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D175" t="n">
-        <v>0.005681818181818182</v>
+        <v>0.6</v>
       </c>
       <c r="E175" t="n">
-        <v>0.001412852626956918</v>
+        <v>0.005674501280478429</v>
       </c>
       <c r="F175" t="n">
-        <v>48.5</v>
+        <v>175</v>
       </c>
       <c r="G175" t="n">
-        <v>62</v>
+        <v>164.5</v>
       </c>
       <c r="H175" t="n">
-        <v>42</v>
+        <v>164.5</v>
       </c>
       <c r="I175" t="n">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="J175" t="n">
-        <v>49.375</v>
+        <v>160.75</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>ARPC1B</t>
+          <t>RAC1</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>0.004463284822715166</v>
       </c>
       <c r="C176" t="n">
-        <v>0.1425101214574899</v>
+        <v>0.7224334600760456</v>
       </c>
       <c r="D176" t="n">
-        <v>0.005681818181818182</v>
+        <v>0.6157894736842106</v>
       </c>
       <c r="E176" t="n">
-        <v>0.002363599362682501</v>
+        <v>0.005929969624849971</v>
       </c>
       <c r="F176" t="n">
-        <v>48.5</v>
+        <v>173</v>
       </c>
       <c r="G176" t="n">
-        <v>46</v>
+        <v>174.5</v>
       </c>
       <c r="H176" t="n">
-        <v>42</v>
+        <v>174.5</v>
       </c>
       <c r="I176" t="n">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="J176" t="n">
-        <v>52.625</v>
+        <v>170.25</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>COTL1</t>
+          <t>MATK</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.01136363636363636</v>
+        <v>0.003582898471864128</v>
       </c>
       <c r="C177" t="n">
-        <v>0.1660377358490566</v>
+        <v>0.6859205776173285</v>
       </c>
       <c r="D177" t="n">
-        <v>0.01136363636363636</v>
+        <v>0.5421052631578948</v>
       </c>
       <c r="E177" t="n">
-        <v>0.003549720158580013</v>
+        <v>0.005260383936596586</v>
       </c>
       <c r="F177" t="n">
-        <v>125.5</v>
+        <v>145</v>
       </c>
       <c r="G177" t="n">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="H177" t="n">
-        <v>64.5</v>
+        <v>134</v>
       </c>
       <c r="I177" t="n">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="J177" t="n">
-        <v>88.75</v>
+        <v>126.75</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>CLIC3</t>
+          <t>SAT1</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0</v>
+        <v>0.00538671165290536</v>
       </c>
       <c r="C178" t="n">
-        <v>0.1921397379912664</v>
+        <v>0.7421875</v>
       </c>
       <c r="D178" t="n">
-        <v>0.005681818181818182</v>
+        <v>0.6526315789473685</v>
       </c>
       <c r="E178" t="n">
-        <v>0.001294857597568066</v>
+        <v>0.006201244915435468</v>
       </c>
       <c r="F178" t="n">
-        <v>48.5</v>
+        <v>187</v>
       </c>
       <c r="G178" t="n">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="H178" t="n">
-        <v>42</v>
+        <v>184</v>
       </c>
       <c r="I178" t="n">
+        <v>174</v>
+      </c>
+      <c r="J178" t="n">
+        <v>182.25</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>RPS11</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>0.002654965329379621</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.6597222222222222</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.4842105263157895</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.004674670972826658</v>
+      </c>
+      <c r="F179" t="n">
+        <v>108</v>
+      </c>
+      <c r="G179" t="n">
+        <v>97</v>
+      </c>
+      <c r="H179" t="n">
+        <v>97</v>
+      </c>
+      <c r="I179" t="n">
+        <v>40</v>
+      </c>
+      <c r="J179" t="n">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>LYAR</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>0.003960914165080152</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.6909090909090909</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.5526315789473684</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.005217855760002036</v>
+      </c>
+      <c r="F180" t="n">
+        <v>160</v>
+      </c>
+      <c r="G180" t="n">
+        <v>140.5</v>
+      </c>
+      <c r="H180" t="n">
+        <v>140.5</v>
+      </c>
+      <c r="I180" t="n">
+        <v>88</v>
+      </c>
+      <c r="J180" t="n">
+        <v>132.25</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>PFN1</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>0.002395196228459695</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.6529209621993127</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.468421052631579</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.004553225636207818</v>
+      </c>
+      <c r="F181" t="n">
+        <v>89</v>
+      </c>
+      <c r="G181" t="n">
+        <v>83</v>
+      </c>
+      <c r="H181" t="n">
+        <v>83</v>
+      </c>
+      <c r="I181" t="n">
+        <v>32</v>
+      </c>
+      <c r="J181" t="n">
+        <v>71.75</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>TKT</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>0.004358449132378327</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.7089552238805971</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.5894736842105263</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.005604077341663429</v>
+      </c>
+      <c r="F182" t="n">
+        <v>170</v>
+      </c>
+      <c r="G182" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="H182" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="I182" t="n">
+        <v>123</v>
+      </c>
+      <c r="J182" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>CTSS</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>0.003842836761735121</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.7089552238805971</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.5894736842105263</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.005670546526620197</v>
+      </c>
+      <c r="F183" t="n">
+        <v>155</v>
+      </c>
+      <c r="G183" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="H183" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="I183" t="n">
+        <v>138</v>
+      </c>
+      <c r="J183" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>SPIB</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>0.001009791277678169</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.59375</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.003537429937527912</v>
+      </c>
+      <c r="F184" t="n">
+        <v>8</v>
+      </c>
+      <c r="G184" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H184" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I184" t="n">
+        <v>6</v>
+      </c>
+      <c r="J184" t="n">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>SH2D1A</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>0.003534002046745391</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.6834532374100719</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.5368421052631579</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.005032880234101442</v>
+      </c>
+      <c r="F185" t="n">
+        <v>143</v>
+      </c>
+      <c r="G185" t="n">
+        <v>129</v>
+      </c>
+      <c r="H185" t="n">
+        <v>129</v>
+      </c>
+      <c r="I185" t="n">
+        <v>66</v>
+      </c>
+      <c r="J185" t="n">
+        <v>116.75</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>PTPRCAP</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>0.002275003506358537</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.6397306397306397</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.4368421052631579</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.004109754325450458</v>
+      </c>
+      <c r="F186" t="n">
+        <v>83</v>
+      </c>
+      <c r="G186" t="n">
+        <v>54</v>
+      </c>
+      <c r="H186" t="n">
+        <v>54</v>
+      </c>
+      <c r="I186" t="n">
+        <v>17</v>
+      </c>
+      <c r="J186" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>SH2D2A</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>0.004490021397631314</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.7169811320754716</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.6052631578947368</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.005611981386493534</v>
+      </c>
+      <c r="F187" t="n">
+        <v>174</v>
+      </c>
+      <c r="G187" t="n">
+        <v>169</v>
+      </c>
+      <c r="H187" t="n">
+        <v>169</v>
+      </c>
+      <c r="I187" t="n">
+        <v>126</v>
+      </c>
+      <c r="J187" t="n">
+        <v>159.5</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>TALDO1</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>0.003867473620118938</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.6834532374100719</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.5368421052631579</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.00514256047965741</v>
+      </c>
+      <c r="F188" t="n">
+        <v>156</v>
+      </c>
+      <c r="G188" t="n">
+        <v>129</v>
+      </c>
+      <c r="H188" t="n">
+        <v>129</v>
+      </c>
+      <c r="I188" t="n">
+        <v>76</v>
+      </c>
+      <c r="J188" t="n">
+        <v>122.5</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>TSPO</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>0.002961111520253403</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.657439446366782</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.4789473684210526</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.004643311368238339</v>
+      </c>
+      <c r="F189" t="n">
+        <v>124</v>
+      </c>
+      <c r="G189" t="n">
+        <v>92</v>
+      </c>
+      <c r="H189" t="n">
+        <v>92</v>
+      </c>
+      <c r="I189" t="n">
         <v>38</v>
       </c>
-      <c r="J178" t="n">
-        <v>52.375</v>
+      <c r="J189" t="n">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>OAZ1</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>0.004886382171588848</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.7196969696969697</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.6105263157894737</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.005470373462584868</v>
+      </c>
+      <c r="F190" t="n">
+        <v>184</v>
+      </c>
+      <c r="G190" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="H190" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="I190" t="n">
+        <v>113</v>
+      </c>
+      <c r="J190" t="n">
+        <v>160.5</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>RARRES3</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>0.004576015645641502</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.7279693486590039</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.6263157894736842</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.005653286654350587</v>
+      </c>
+      <c r="F191" t="n">
+        <v>176</v>
+      </c>
+      <c r="G191" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="H191" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="I191" t="n">
+        <v>134</v>
+      </c>
+      <c r="J191" t="n">
+        <v>167.25</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>TMEM66</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>0.003040260266623953</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.6484641638225256</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.4578947368421052</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.004306259925746705</v>
+      </c>
+      <c r="F192" t="n">
+        <v>129</v>
+      </c>
+      <c r="G192" t="n">
+        <v>75</v>
+      </c>
+      <c r="H192" t="n">
+        <v>75</v>
+      </c>
+      <c r="I192" t="n">
+        <v>23</v>
+      </c>
+      <c r="J192" t="n">
+        <v>75.5</v>
       </c>
     </row>
   </sheetData>
